--- a/5/data/pe2_exp5.xlsx
+++ b/5/data/pe2_exp5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuma2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\physics_experiment_2\5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B0EF99E-D54D-4223-94BE-F0EF64794AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F84013-9749-482B-9758-6FCA386470FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="1000" firstSheet="9" activeTab="15" xr2:uid="{3573288A-466D-4422-8044-13D2BEE97D22}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="1000" firstSheet="10" activeTab="20" xr2:uid="{3573288A-466D-4422-8044-13D2BEE97D22}"/>
   </bookViews>
   <sheets>
     <sheet name="没" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="129">
   <si>
     <t>A power [dBm]</t>
     <phoneticPr fontId="1"/>
@@ -277,10 +277,6 @@
   </si>
   <si>
     <t>A-B ratio [dB]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DUT transpalent</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -700,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,12 +731,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -4713,7 +4703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>phase diff [rad]</c:v>
+                  <c:v>phase diff2 [rad]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6187,7 +6177,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>-4.0845538399977295E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -7134,7 +7124,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DUT transpalent</c:v>
+                  <c:v>DUT transpalent [dB]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8318,45 +8308,6 @@
                 <c:pt idx="9">
                   <c:v>43.236495597407185</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8467,45 +8418,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>41.93847819973557</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30149,16 +30061,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>413436</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101719</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29261</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>306814</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101720</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>344914</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9645</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30273,15 +30185,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>522166</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>103065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>312616</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2931</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30859,10 +30771,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -31186,13 +31094,13 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -31206,7 +31114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>1</v>
       </c>
@@ -31221,7 +31129,7 @@
         <v>-3.4777777777777779</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>2</v>
       </c>
@@ -31236,7 +31144,7 @@
         <v>-4.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>5</v>
       </c>
@@ -31251,7 +31159,7 @@
         <v>-4.3888888888888893</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>10</v>
       </c>
@@ -31266,7 +31174,7 @@
         <v>-3.8333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>20</v>
       </c>
@@ -31281,7 +31189,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>50</v>
       </c>
@@ -31296,7 +31204,7 @@
         <v>-3.6222222222222222</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>100</v>
       </c>
@@ -31311,7 +31219,7 @@
         <v>-4.4222222222222216</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>200</v>
       </c>
@@ -31326,7 +31234,7 @@
         <v>-4.333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>500</v>
       </c>
@@ -31341,7 +31249,7 @@
         <v>-3.7444444444444449</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>1000</v>
       </c>
@@ -31356,7 +31264,7 @@
         <v>-2.8111111111111113</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -31372,32 +31280,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75E2C03-525E-4637-BAF7-68C06DEDAC17}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N8"/>
+    <sheetView zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="10" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="10" width="19.08203125" customWidth="1"/>
     <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -31421,7 +31329,7 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
@@ -31436,7 +31344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -31488,7 +31396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -31540,7 +31448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -31591,7 +31499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>70000000</v>
       </c>
@@ -31643,7 +31551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>100000000</v>
       </c>
@@ -31695,7 +31603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K8" s="5"/>
       <c r="M8" t="s">
         <v>37</v>
@@ -31707,25 +31615,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -31746,22 +31654,22 @@
       <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.08203125" customWidth="1"/>
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -31802,7 +31710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -31850,7 +31758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -31898,7 +31806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -31945,7 +31853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>100000000</v>
       </c>
@@ -31993,7 +31901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
         <v>35</v>
       </c>
@@ -32005,7 +31913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -32027,26 +31935,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5553014B-0CE4-49D8-8D94-DD8945EEE1C5}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.08203125" customWidth="1"/>
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -32087,7 +31995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -32135,7 +32043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -32169,7 +32077,7 @@
         <v>-1.2315043202071989</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J6" si="4">-2*ATAN($M$8*2*A4*PI()*$M$7)</f>
+        <f>-2*ATAN($M$8*2*A4*PI()*$M$7)</f>
         <v>-1.1219642322172476</v>
       </c>
       <c r="L4" t="s">
@@ -32183,7 +32091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -32217,7 +32125,7 @@
         <v>-2.4504422698000385</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J4:J6" si="4">-2*ATAN($M$8*2*A5*PI()*$M$7)</f>
         <v>-2.0077696437077743</v>
       </c>
       <c r="L5" t="s">
@@ -32230,7 +32138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>100000000</v>
       </c>
@@ -32278,7 +32186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
         <v>35</v>
       </c>
@@ -32290,7 +32198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -32313,33 +32221,33 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="10" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="10" width="19.08203125" customWidth="1"/>
     <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -32360,7 +32268,7 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
@@ -32375,7 +32283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -32427,7 +32335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -32479,7 +32387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -32530,7 +32438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>70000000</v>
       </c>
@@ -32582,7 +32490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>100000000</v>
       </c>
@@ -32634,7 +32542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
         <v>37</v>
       </c>
@@ -32656,26 +32564,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA4A50A-57E1-464A-A84D-CAFD8C9AFBB9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="9" width="16.25" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -32689,22 +32597,22 @@
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
         <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>10000000</v>
       </c>
@@ -32734,7 +32642,7 @@
         <f>2*G2/(2*G2+$M$2*2)</f>
         <v>0.99063905620958204</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <f>10*LOG10(H2)</f>
         <v>-4.0845538399977295E-2</v>
       </c>
@@ -32751,7 +32659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>20000000</v>
       </c>
@@ -32766,23 +32674,23 @@
         <v>-6.43</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E41" si="1">D3+$M$3</f>
+        <f>D3+$M$3</f>
         <v>-0.42999999999999972</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F41" si="2">A3*2*PI()</f>
+        <f t="shared" ref="F3:F41" si="1">A3*2*PI()</f>
         <v>125663706.14359173</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G41" si="3">ABS(F3*$M$4-1/(F3*$M$5))</f>
+        <f t="shared" ref="G3:G41" si="2">ABS(F3*$M$4-1/(F3*$M$5))</f>
         <v>2624.9363695133325</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H41" si="4">2*G3/(2*G3+$M$2)</f>
+        <f t="shared" ref="H3:H41" si="3">2*G3/(2*G3+$M$2)</f>
         <v>0.99056581120678333</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I41" si="5">20*LOG10(H3)</f>
+        <f t="shared" ref="I3:I41" si="4">20*LOG10(H3)</f>
         <v>-8.2333310242444377E-2</v>
       </c>
       <c r="L3" t="s">
@@ -32795,7 +32703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>30000000</v>
       </c>
@@ -32810,27 +32718,27 @@
         <v>-6.47</v>
       </c>
       <c r="E4">
+        <f t="shared" ref="E3:E41" si="5">D4+$M$3</f>
+        <v>-0.46999999999999975</v>
+      </c>
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>-0.46999999999999975</v>
-      </c>
-      <c r="F4" s="5">
+        <v>188495559.21538758</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" si="2"/>
-        <v>188495559.21538758</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="3"/>
         <v>1726.9192335492298</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
+        <f>2*G4/(2*G4+$M$2)</f>
+        <v>0.98572993576344714</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="4"/>
-        <v>0.98572993576344714</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="5"/>
         <v>-0.12484108196825447</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
@@ -32843,7 +32751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>40000000</v>
       </c>
@@ -32858,23 +32766,23 @@
         <v>-6.52</v>
       </c>
       <c r="E5">
+        <f t="shared" si="5"/>
+        <v>-0.51999999999999957</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>-0.51999999999999957</v>
-      </c>
-      <c r="F5" s="5">
+        <v>251327412.28718346</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="2"/>
-        <v>251327412.28718346</v>
-      </c>
-      <c r="G5" s="5">
+        <v>1270.9991617292808</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="3"/>
-        <v>1270.9991617292808</v>
-      </c>
-      <c r="H5">
+        <v>0.98070986406608329</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="4"/>
-        <v>0.98070986406608329</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="5"/>
         <v>-0.16918913011795889</v>
       </c>
       <c r="L5" t="s">
@@ -32888,7 +32796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>50000000</v>
       </c>
@@ -32903,11 +32811,11 @@
         <v>-6.57</v>
       </c>
       <c r="E6">
+        <f t="shared" si="5"/>
+        <v>-0.57000000000000028</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>-0.57000000000000028</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
         <v>314159265.35897928</v>
       </c>
       <c r="G6" s="5">
@@ -32915,15 +32823,15 @@
         <v>991.91791556699354</v>
       </c>
       <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0.97541591153297658</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="4"/>
-        <v>0.97541591153297658</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="5"/>
         <v>-0.21620328461618166</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6">
         <f>1/(2*PI()*SQRT(M4*M5))</f>
@@ -32933,7 +32841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>60000000</v>
       </c>
@@ -32948,15 +32856,15 @@
         <v>-6.63</v>
       </c>
       <c r="E7">
+        <f t="shared" si="5"/>
+        <v>-0.62999999999999989</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>-0.62999999999999989</v>
-      </c>
-      <c r="F7" s="5">
+        <v>376991118.43077517</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
-        <v>376991118.43077517</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="3"/>
         <v>801.25608223353697</v>
       </c>
       <c r="H7" s="5">
@@ -32972,10 +32880,10 @@
         <v>195.9061924191225</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>70000000</v>
       </c>
@@ -32990,27 +32898,27 @@
         <v>-6.69</v>
       </c>
       <c r="E8">
+        <f t="shared" si="5"/>
+        <v>-0.69000000000000039</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>-0.69000000000000039</v>
-      </c>
-      <c r="F8" s="5">
+        <v>439822971.50257105</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
-        <v>439822971.50257105</v>
-      </c>
-      <c r="G8" s="5">
+        <v>661.11962765941212</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="3"/>
-        <v>661.11962765941212</v>
-      </c>
-      <c r="H8">
+        <v>0.96356320531846096</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="4"/>
-        <v>0.96356320531846096</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
         <v>-0.32239584703663499</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>80000000</v>
       </c>
@@ -33025,27 +32933,27 @@
         <v>-6.74</v>
       </c>
       <c r="E9">
+        <f t="shared" si="5"/>
+        <v>-0.74000000000000021</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>-0.74000000000000021</v>
-      </c>
-      <c r="F9" s="5">
+        <v>502654824.57436693</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
-        <v>502654824.57436693</v>
-      </c>
-      <c r="G9" s="5">
+        <v>552.56153480986995</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="3"/>
-        <v>552.56153480986995</v>
-      </c>
-      <c r="H9">
+        <v>0.95671456893639939</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="4"/>
-        <v>0.95671456893639939</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
         <v>-0.38435225022369246</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>90000000</v>
       </c>
@@ -33060,27 +32968,27 @@
         <v>-6.79</v>
       </c>
       <c r="E10">
+        <f t="shared" si="5"/>
+        <v>-0.79</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>-0.79</v>
-      </c>
-      <c r="F10" s="5">
+        <v>565486677.64616275</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
-        <v>565486677.64616275</v>
-      </c>
-      <c r="G10" s="5">
+        <v>465.05568311004913</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="3"/>
-        <v>465.05568311004913</v>
-      </c>
-      <c r="H10">
+        <v>0.94898538908610941</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="4"/>
-        <v>0.94898538908610941</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
         <v>-0.45480948144627109</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>100000000</v>
       </c>
@@ -33095,27 +33003,27 @@
         <v>-6.84</v>
       </c>
       <c r="E11">
+        <f t="shared" si="5"/>
+        <v>-0.83999999999999986</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>-0.83999999999999986</v>
-      </c>
-      <c r="F11" s="5">
+        <v>628318530.71795857</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="2"/>
-        <v>628318530.71795857</v>
-      </c>
-      <c r="G11" s="5">
+        <v>392.28640021503361</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="3"/>
-        <v>392.28640021503361</v>
-      </c>
-      <c r="H11">
+        <v>0.94008910909361731</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="4"/>
-        <v>0.94008910909361731</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="5"/>
         <v>-0.53661957154941642</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>110000000</v>
       </c>
@@ -33130,27 +33038,27 @@
         <v>-6.89</v>
       </c>
       <c r="E12">
+        <f t="shared" si="5"/>
+        <v>-0.88999999999999968</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>-0.88999999999999968</v>
-      </c>
-      <c r="F12" s="5">
+        <v>691150383.78975451</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="2"/>
-        <v>691150383.78975451</v>
-      </c>
-      <c r="G12" s="5">
+        <v>330.23462190533081</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="3"/>
-        <v>330.23462190533081</v>
-      </c>
-      <c r="H12">
+        <v>0.9296239767793173</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="4"/>
-        <v>0.9296239767793173</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="5"/>
         <v>-0.63385367048915842</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>120000000</v>
       </c>
@@ -33165,27 +33073,27 @@
         <v>-6.95</v>
       </c>
       <c r="E13">
+        <f t="shared" si="5"/>
+        <v>-0.95000000000000018</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>-0.95000000000000018</v>
-      </c>
-      <c r="F13" s="5">
+        <v>753982236.86155033</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
-        <v>753982236.86155033</v>
-      </c>
-      <c r="G13" s="5">
+        <v>276.22097203461271</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="3"/>
-        <v>276.22097203461271</v>
-      </c>
-      <c r="H13">
+        <v>0.91700445081517334</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="4"/>
-        <v>0.91700445081517334</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="5"/>
         <v>-0.75257112826198191</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>130000000</v>
       </c>
@@ -33200,27 +33108,27 @@
         <v>-7.01</v>
       </c>
       <c r="E14">
+        <f t="shared" si="5"/>
+        <v>-1.0099999999999998</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>-1.0099999999999998</v>
-      </c>
-      <c r="F14" s="5">
+        <v>816814089.93334615</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="2"/>
-        <v>816814089.93334615</v>
-      </c>
-      <c r="G14" s="5">
+        <v>228.39049788619045</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="3"/>
-        <v>228.39049788619045</v>
-      </c>
-      <c r="H14">
+        <v>0.9013380524978144</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="4"/>
-        <v>0.9013380524978144</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="5"/>
         <v>-0.90224587189193373</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>140000000</v>
       </c>
@@ -33235,27 +33143,27 @@
         <v>-7.12</v>
       </c>
       <c r="E15">
+        <f t="shared" si="5"/>
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="F15" s="5">
+        <v>879645943.00514209</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
-        <v>879645943.00514209</v>
-      </c>
-      <c r="G15" s="5">
+        <v>185.41823323385765</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="3"/>
-        <v>185.41823323385765</v>
-      </c>
-      <c r="H15">
+        <v>0.88118900336828154</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="4"/>
-        <v>0.88118900336828154</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="5"/>
         <v>-1.0986186236681126</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>150000000</v>
       </c>
@@ -33270,27 +33178,27 @@
         <v>-7.35</v>
       </c>
       <c r="E16">
+        <f t="shared" si="5"/>
+        <v>-1.3499999999999996</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>-1.3499999999999996</v>
-      </c>
-      <c r="F16" s="5">
+        <v>942477796.07693791</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="2"/>
-        <v>942477796.07693791</v>
-      </c>
-      <c r="G16" s="5">
+        <v>146.33253617839665</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="3"/>
-        <v>146.33253617839665</v>
-      </c>
-      <c r="H16">
+        <v>0.85408492422029381</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="4"/>
-        <v>0.85408492422029381</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="5"/>
         <v>-1.3699788792750989</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>160000000</v>
       </c>
@@ -33305,27 +33213,27 @@
         <v>-7.82</v>
       </c>
       <c r="E17">
+        <f t="shared" si="5"/>
+        <v>-1.8200000000000003</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>-1.8200000000000003</v>
-      </c>
-      <c r="F17" s="5">
+        <v>1005309649.1487339</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="2"/>
-        <v>1005309649.1487339</v>
-      </c>
-      <c r="G17" s="5">
+        <v>110.40467529539387</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="3"/>
-        <v>110.40467529539387</v>
-      </c>
-      <c r="H17">
+        <v>0.81536826593719225</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="4"/>
-        <v>0.81536826593719225</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
         <v>-1.7729239051768251</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>170000000</v>
       </c>
@@ -33340,27 +33248,27 @@
         <v>-8.77</v>
       </c>
       <c r="E18">
+        <f t="shared" si="5"/>
+        <v>-2.7699999999999996</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>-2.7699999999999996</v>
-      </c>
-      <c r="F18" s="5">
+        <v>1068141502.2205297</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="2"/>
-        <v>1068141502.2205297</v>
-      </c>
-      <c r="G18" s="5">
+        <v>77.077385377944921</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="3"/>
-        <v>77.077385377944921</v>
-      </c>
-      <c r="H18">
+        <v>0.7550877708374224</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="4"/>
-        <v>0.7550877708374224</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="5"/>
         <v>-2.4400512674201518</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>180000000</v>
       </c>
@@ -33375,27 +33283,27 @@
         <v>-10.220000000000001</v>
       </c>
       <c r="E19">
+        <f t="shared" si="5"/>
+        <v>-4.2200000000000006</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>-4.2200000000000006</v>
-      </c>
-      <c r="F19" s="5">
+        <v>1130973355.2923255</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
-        <v>1130973355.2923255</v>
-      </c>
-      <c r="G19" s="5">
+        <v>45.917237931790851</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="3"/>
-        <v>45.917237931790851</v>
-      </c>
-      <c r="H19">
+        <v>0.64747640025059439</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="4"/>
-        <v>0.64747640025059439</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
         <v>-3.7755211295743734</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>190000000</v>
       </c>
@@ -33410,27 +33318,27 @@
         <v>-11.28</v>
       </c>
       <c r="E20">
+        <f t="shared" si="5"/>
+        <v>-5.2799999999999994</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>-5.2799999999999994</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
         <v>1193805208.3641214</v>
       </c>
       <c r="G20" s="5">
+        <f>ABS(F20*$M$4-1/(F20*$M$5))</f>
+        <v>16.582052566727214</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="3"/>
-        <v>16.582052566727214</v>
-      </c>
-      <c r="H20">
+        <v>0.39877907758684583</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="4"/>
-        <v>0.39877907758684583</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
         <v>-7.9853527106651825</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>200000000</v>
       </c>
@@ -33445,27 +33353,27 @@
         <v>-11.29</v>
       </c>
       <c r="E21">
+        <f t="shared" si="5"/>
+        <v>-5.2899999999999991</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>-5.2899999999999991</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
         <v>1256637061.4359171</v>
       </c>
       <c r="G21" s="5">
+        <f>ABS(F21*$M$4-1/(F21*$M$5))</f>
+        <v>11.20191502940952</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="3"/>
-        <v>11.20191502940952</v>
-      </c>
-      <c r="H21">
+        <v>0.30942879735255352</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="4"/>
-        <v>0.30942879735255352</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="5"/>
         <v>-10.188785412647576</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <v>210000000</v>
       </c>
@@ -33480,27 +33388,27 @@
         <v>-10.82</v>
       </c>
       <c r="E22">
+        <f t="shared" si="5"/>
+        <v>-4.82</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>-4.82</v>
-      </c>
-      <c r="F22" s="5">
+        <v>1319468914.5077131</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="2"/>
-        <v>1319468914.5077131</v>
-      </c>
-      <c r="G22" s="5">
+        <v>37.656267395037588</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="3"/>
-        <v>37.656267395037588</v>
-      </c>
-      <c r="H22">
+        <v>0.60099761700806309</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="4"/>
-        <v>0.60099761700806309</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="5"/>
         <v>-4.422544999955206</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>220000000</v>
       </c>
@@ -33515,27 +33423,27 @@
         <v>-10.35</v>
       </c>
       <c r="E23">
+        <f t="shared" si="5"/>
+        <v>-4.3499999999999996</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>-4.3499999999999996</v>
-      </c>
-      <c r="F23" s="5">
+        <v>1382300767.579509</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="2"/>
-        <v>1382300767.579509</v>
-      </c>
-      <c r="G23" s="5">
+        <v>62.962315697953585</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="3"/>
-        <v>62.962315697953585</v>
-      </c>
-      <c r="H23">
+        <v>0.7157873823394395</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="4"/>
-        <v>0.7157873823394395</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="5"/>
         <v>-2.9043192295281002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <v>230000000</v>
       </c>
@@ -33550,27 +33458,27 @@
         <v>-9.9499999999999993</v>
       </c>
       <c r="E24">
+        <f t="shared" si="5"/>
+        <v>-3.9499999999999993</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9499999999999993</v>
-      </c>
-      <c r="F24" s="5">
+        <v>1445132620.6513047</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
-        <v>1445132620.6513047</v>
-      </c>
-      <c r="G24" s="5">
+        <v>87.269838728945928</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="3"/>
-        <v>87.269838728945928</v>
-      </c>
-      <c r="H24">
+        <v>0.7773222061861359</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="4"/>
-        <v>0.7773222061861359</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="5"/>
         <v>-2.1879785078136158</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>240000000</v>
       </c>
@@ -33585,27 +33493,27 @@
         <v>-9.6300000000000008</v>
       </c>
       <c r="E25">
+        <f t="shared" si="5"/>
+        <v>-3.6300000000000008</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>-3.6300000000000008</v>
-      </c>
-      <c r="F25" s="5">
+        <v>1507964473.7231007</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>1507964473.7231007</v>
-      </c>
-      <c r="G25" s="5">
+        <v>110.70365214700522</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="3"/>
-        <v>110.70365214700522</v>
-      </c>
-      <c r="H25">
+        <v>0.81577503917935845</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="4"/>
-        <v>0.81577503917935845</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="5"/>
         <v>-1.7685917443527777</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>250000000</v>
       </c>
@@ -33620,27 +33528,27 @@
         <v>-9.39</v>
       </c>
       <c r="E26">
+        <f t="shared" si="5"/>
+        <v>-3.3900000000000006</v>
+      </c>
+      <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>-3.3900000000000006</v>
-      </c>
-      <c r="F26" s="5">
+        <v>1570796326.7948966</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="2"/>
-        <v>1570796326.7948966</v>
-      </c>
-      <c r="G26" s="5">
+        <v>133.36860110568341</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="3"/>
-        <v>133.36860110568341</v>
-      </c>
-      <c r="H26">
+        <v>0.8421404254034115</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="4"/>
-        <v>0.8421404254034115</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="5"/>
         <v>-1.4923096927412884</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>260000000</v>
       </c>
@@ -33655,27 +33563,27 @@
         <v>-9.1999999999999993</v>
       </c>
       <c r="E27">
+        <f t="shared" si="5"/>
+        <v>-3.1999999999999993</v>
+      </c>
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>-3.1999999999999993</v>
-      </c>
-      <c r="F27" s="5">
+        <v>1633628179.8666923</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="2"/>
-        <v>1633628179.8666923</v>
-      </c>
-      <c r="G27" s="5">
+        <v>155.35340073490897</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="3"/>
-        <v>155.35340073490897</v>
-      </c>
-      <c r="H27">
+        <v>0.86138326253827591</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="4"/>
-        <v>0.86138326253827591</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="5"/>
         <v>-1.2960714245793308</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>270000000</v>
       </c>
@@ -33690,27 +33598,27 @@
         <v>-9.0299999999999994</v>
       </c>
       <c r="E28">
+        <f t="shared" si="5"/>
+        <v>-3.0299999999999994</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>-3.0299999999999994</v>
-      </c>
-      <c r="F28" s="5">
+        <v>1696460032.9384882</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="2"/>
-        <v>1696460032.9384882</v>
-      </c>
-      <c r="G28" s="5">
+        <v>176.73362318239904</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="3"/>
-        <v>176.73362318239904</v>
-      </c>
-      <c r="H28">
+        <v>0.87607420317139673</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="4"/>
-        <v>0.87607420317139673</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="5"/>
         <v>-1.149182153737192</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
         <v>280000000</v>
       </c>
@@ -33725,27 +33633,27 @@
         <v>-8.8800000000000008</v>
       </c>
       <c r="E29">
+        <f t="shared" si="5"/>
+        <v>-2.8800000000000008</v>
+      </c>
+      <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>-2.8800000000000008</v>
-      </c>
-      <c r="F29" s="5">
+        <v>1759291886.0102842</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="2"/>
-        <v>1759291886.0102842</v>
-      </c>
-      <c r="G29" s="5">
+        <v>197.57404457476804</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="3"/>
-        <v>197.57404457476804</v>
-      </c>
-      <c r="H29">
+        <v>0.8876778285277469</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="4"/>
-        <v>0.8876778285277469</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="5"/>
         <v>-1.0348925465938206</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <v>290000000</v>
       </c>
@@ -33760,27 +33668,27 @@
         <v>-8.73</v>
       </c>
       <c r="E30">
+        <f t="shared" si="5"/>
+        <v>-2.7300000000000004</v>
+      </c>
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>-2.7300000000000004</v>
-      </c>
-      <c r="F30" s="5">
+        <v>1822123739.0820801</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="2"/>
-        <v>1822123739.0820801</v>
-      </c>
-      <c r="G30" s="5">
+        <v>217.93050640047676</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="3"/>
-        <v>217.93050640047676</v>
-      </c>
-      <c r="H30">
+        <v>0.89708991114196712</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="4"/>
-        <v>0.89708991114196712</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="5"/>
         <v>-0.94328054924173954</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5">
         <v>300000000</v>
       </c>
@@ -33795,27 +33703,27 @@
         <v>-8.59</v>
       </c>
       <c r="E31">
+        <f t="shared" si="5"/>
+        <v>-2.59</v>
+      </c>
+      <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>-2.59</v>
-      </c>
-      <c r="F31" s="5">
+        <v>1884955592.1538758</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="2"/>
-        <v>1884955592.1538758</v>
-      </c>
-      <c r="G31" s="5">
+        <v>237.85140461619116</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="3"/>
-        <v>237.85140461619116</v>
-      </c>
-      <c r="H31">
+        <v>0.90488922805451855</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="4"/>
-        <v>0.90488922805451855</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="5"/>
         <v>-0.86809163333458461</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5">
         <v>310000000</v>
       </c>
@@ -33830,27 +33738,27 @@
         <v>-8.4499999999999993</v>
       </c>
       <c r="E32">
+        <f t="shared" si="5"/>
+        <v>-2.4499999999999993</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v>-2.4499999999999993</v>
-      </c>
-      <c r="F32" s="5">
+        <v>1947787445.2256718</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="2"/>
-        <v>1947787445.2256718</v>
-      </c>
-      <c r="G32" s="5">
+        <v>257.37889053900761</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="3"/>
-        <v>257.37889053900761</v>
-      </c>
-      <c r="H32">
+        <v>0.9114664699182019</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="4"/>
-        <v>0.9114664699182019</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="5"/>
         <v>-0.80518606178940033</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
         <v>320000000</v>
       </c>
@@ -33865,27 +33773,27 @@
         <v>-8.33</v>
       </c>
       <c r="E33">
+        <f t="shared" si="5"/>
+        <v>-2.33</v>
+      </c>
+      <c r="F33" s="5">
         <f t="shared" si="1"/>
-        <v>-2.33</v>
-      </c>
-      <c r="F33" s="5">
+        <v>2010619298.2974677</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="2"/>
-        <v>2010619298.2974677</v>
-      </c>
-      <c r="G33" s="5">
+        <v>276.54984657138522</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="3"/>
-        <v>276.54984657138522</v>
-      </c>
-      <c r="H33">
+        <v>0.91709496693747505</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="4"/>
-        <v>0.91709496693747505</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="5"/>
         <v>-0.75171379954598483</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
         <v>330000000</v>
       </c>
@@ -33900,27 +33808,27 @@
         <v>-8.2200000000000006</v>
       </c>
       <c r="E34">
+        <f t="shared" si="5"/>
+        <v>-2.2200000000000006</v>
+      </c>
+      <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>-2.2200000000000006</v>
-      </c>
-      <c r="F34" s="5">
+        <v>2073451151.3692634</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="2"/>
-        <v>2073451151.3692634</v>
-      </c>
-      <c r="G34" s="5">
+        <v>295.39668452154569</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="3"/>
-        <v>295.39668452154569</v>
-      </c>
-      <c r="H34">
+        <v>0.92197172690056717</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="4"/>
-        <v>0.92197172690056717</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="5"/>
         <v>-0.70564793552912919</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5">
         <v>340000000</v>
       </c>
@@ -33935,27 +33843,27 @@
         <v>-8.1300000000000008</v>
       </c>
       <c r="E35">
+        <f t="shared" si="5"/>
+        <v>-2.1300000000000008</v>
+      </c>
+      <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>-2.1300000000000008</v>
-      </c>
-      <c r="F35" s="5">
+        <v>2136283004.4410594</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="2"/>
-        <v>2136283004.4410594</v>
-      </c>
-      <c r="G35" s="5">
+        <v>313.94800304380232</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="3"/>
-        <v>313.94800304380232</v>
-      </c>
-      <c r="H35">
+        <v>0.92624237412377008</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="4"/>
-        <v>0.92624237412377008</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="5"/>
         <v>-0.66550709203853986</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5">
         <v>350000000</v>
       </c>
@@ -33970,27 +33878,27 @@
         <v>-8.0399999999999991</v>
       </c>
       <c r="E36">
+        <f t="shared" si="5"/>
+        <v>-2.0399999999999991</v>
+      </c>
+      <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>-2.0399999999999991</v>
-      </c>
-      <c r="F36" s="5">
+        <v>2199114857.5128551</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="2"/>
-        <v>2199114857.5128551</v>
-      </c>
-      <c r="G36" s="5">
+        <v>332.22913237483255</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="3"/>
-        <v>332.22913237483255</v>
-      </c>
-      <c r="H36">
+        <v>0.9300169058615072</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="4"/>
-        <v>0.9300169058615072</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="5"/>
         <v>-0.63018313525180547</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5">
         <v>360000000</v>
       </c>
@@ -34005,27 +33913,27 @@
         <v>-7.95</v>
       </c>
       <c r="E37">
+        <f t="shared" si="5"/>
+        <v>-1.9500000000000002</v>
+      </c>
+      <c r="F37" s="5">
         <f t="shared" si="1"/>
-        <v>-1.9500000000000002</v>
-      </c>
-      <c r="F37" s="5">
+        <v>2261946710.584651</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="2"/>
-        <v>2261946710.584651</v>
-      </c>
-      <c r="G37" s="5">
+        <v>350.262588280572</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="3"/>
-        <v>350.262588280572</v>
-      </c>
-      <c r="H37">
+        <v>0.93337998302855518</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="4"/>
-        <v>0.93337998302855518</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="5"/>
         <v>-0.59883034185759809</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5">
         <v>370000000</v>
       </c>
@@ -34040,27 +33948,27 @@
         <v>-7.86</v>
       </c>
       <c r="E38">
+        <f t="shared" si="5"/>
+        <v>-1.8600000000000003</v>
+      </c>
+      <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>-1.8600000000000003</v>
-      </c>
-      <c r="F38" s="5">
+        <v>2324778563.6564469</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="2"/>
-        <v>2324778563.6564469</v>
-      </c>
-      <c r="G38" s="5">
+        <v>368.06845239009817</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="3"/>
-        <v>368.06845239009817</v>
-      </c>
-      <c r="H38">
+        <v>0.9363978466142866</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="4"/>
-        <v>0.9363978466142866</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="5"/>
         <v>-0.57079187397661335</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5">
         <v>380000000</v>
       </c>
@@ -34075,27 +33983,27 @@
         <v>-7.79</v>
       </c>
       <c r="E39">
+        <f t="shared" si="5"/>
+        <v>-1.79</v>
+      </c>
+      <c r="F39" s="5">
         <f t="shared" si="1"/>
-        <v>-1.79</v>
-      </c>
-      <c r="F39" s="5">
+        <v>2387610416.7282429</v>
+      </c>
+      <c r="G39" s="5">
         <f t="shared" si="2"/>
-        <v>2387610416.7282429</v>
-      </c>
-      <c r="G39" s="5">
+        <v>385.66469247679646</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="3"/>
-        <v>385.66469247679646</v>
-      </c>
-      <c r="H39">
+        <v>0.93912308397096356</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="4"/>
-        <v>0.93912308397096356</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="5"/>
         <v>-0.54554968425626438</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5">
         <v>390000000</v>
       </c>
@@ -34110,27 +34018,27 @@
         <v>-7.74</v>
       </c>
       <c r="E40">
+        <f t="shared" si="5"/>
+        <v>-1.7400000000000002</v>
+      </c>
+      <c r="F40" s="5">
         <f t="shared" si="1"/>
-        <v>-1.7400000000000002</v>
-      </c>
-      <c r="F40" s="5">
+        <v>2450442269.8000388</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="2"/>
-        <v>2450442269.8000388</v>
-      </c>
-      <c r="G40" s="5">
+        <v>403.06743346549968</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="3"/>
-        <v>403.06743346549968</v>
-      </c>
-      <c r="H40">
+        <v>0.94159798656578975</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="4"/>
-        <v>0.94159798656578975</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="5"/>
         <v>-0.52268957645093261</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5">
         <v>400000000</v>
       </c>
@@ -34145,23 +34053,23 @@
         <v>-7.69</v>
       </c>
       <c r="E41">
+        <f t="shared" si="5"/>
+        <v>-1.6900000000000004</v>
+      </c>
+      <c r="F41" s="5">
         <f t="shared" si="1"/>
-        <v>-1.6900000000000004</v>
-      </c>
-      <c r="F41" s="5">
+        <v>2513274122.8718343</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="2"/>
-        <v>2513274122.8718343</v>
-      </c>
-      <c r="G41" s="5">
+        <v>420.29118778855741</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="3"/>
-        <v>420.29118778855741</v>
-      </c>
-      <c r="H41">
+        <v>0.943856962173096</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="4"/>
-        <v>0.943856962173096</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="5"/>
         <v>-0.50187632687235573</v>
       </c>
     </row>
@@ -34176,27 +34084,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56B0F9D-339B-4227-8E36-4C692B27FA03}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.08203125" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -34210,22 +34118,22 @@
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>10000000</v>
       </c>
@@ -34240,7 +34148,7 @@
         <v>-6.45</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E43" si="1">D2+$M$3</f>
+        <f>D2+$M$3</f>
         <v>-0.45000000000000018</v>
       </c>
       <c r="F2" s="5">
@@ -34272,7 +34180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>20000000</v>
       </c>
@@ -34287,7 +34195,7 @@
         <v>-6.48</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E2:E43" si="1">D3+$M$3</f>
         <v>-0.48000000000000043</v>
       </c>
       <c r="F3" s="5">
@@ -34316,7 +34224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>50000000</v>
       </c>
@@ -34351,10 +34259,10 @@
         <v>-4.103792523532058</v>
       </c>
       <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
         <v>52</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
       </c>
       <c r="M4">
         <v>4.4000000000000004</v>
@@ -34363,7 +34271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>100000000</v>
       </c>
@@ -34398,16 +34306,16 @@
         <v>-5.4890993351063102</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>120000000</v>
       </c>
@@ -34442,16 +34350,16 @@
         <v>-6.178418443414575</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>140000000</v>
       </c>
@@ -34486,17 +34394,17 @@
         <v>-6.9210455391751067</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7">
         <f>CONVERT(35, "um","m")</f>
         <v>3.4999999999999997E-5</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>160000000</v>
       </c>
@@ -34531,16 +34439,16 @@
         <v>-7.6926373356489517</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8">
         <v>0.17910000000000001</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>180000000</v>
       </c>
@@ -34575,14 +34483,14 @@
         <v>-8.4432778919454048</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9">
         <f>M6+M7*(1+M4^(-1))/(2*PI())*(1+LN(4/SQRT((M7/M5)^2+(PI()*(M6/M7+1.1))^(-2))))</f>
         <v>3.0423506587452845E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>200000000</v>
       </c>
@@ -34617,14 +34525,14 @@
         <v>-9.079512941307442</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10">
         <f>(14+8*M4^(-1))/11*4*M5/M9</f>
         <v>3.0250641091186914</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>220000000</v>
       </c>
@@ -34659,7 +34567,7 @@
         <v>-9.4668747854991011</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11">
         <v>50</v>
@@ -34668,7 +34576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>225000000</v>
       </c>
@@ -34703,7 +34611,7 @@
         <v>-9.5093734182893623</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12">
         <f>42.43/SQRT(M4+1)*LN(1+4*M5/M9*(M10+SQRT(M10^2+(1+M4^(-1))/2*PI()^2)))</f>
@@ -34713,7 +34621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>230000000</v>
       </c>
@@ -34748,14 +34656,14 @@
         <v>-9.5274631078961001</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13">
         <f>M6+M7*(1+1^(-1))/(2*PI())*(1+LN(4/SQRT((M7/M5)^2+(PI()*(M6/M7+1.1))^(-2))))</f>
         <v>3.0690158883256487E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>235000000</v>
       </c>
@@ -34790,14 +34698,14 @@
         <v>-9.5207086351865815</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14">
         <f>(14+8*1^(-1))/11*4*M5/M13</f>
         <v>4.1707180626501241</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8">
         <v>240000000</v>
       </c>
@@ -34832,7 +34740,7 @@
         <v>-9.4892731765035805</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M15">
         <f>42.43/SQRT(1+1)*LN(1+4*M5/M13*(M14+SQRT(M14^2+(1+1^(-1))/2*PI()^2)))</f>
@@ -34842,7 +34750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>245000000</v>
       </c>
@@ -34877,7 +34785,7 @@
         <v>-9.4339056845981553</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M16">
         <f>299792458/(M15/M12)</f>
@@ -34887,7 +34795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>250000000</v>
       </c>
@@ -34922,14 +34830,14 @@
         <v>-9.3558841778914559</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17">
         <f>M12/M15</f>
         <v>0.55235032214013202</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>260000000</v>
       </c>
@@ -34964,14 +34872,14 @@
         <v>-9.1390611904767045</v>
       </c>
       <c r="L18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18">
         <f>M8*4/(2*0+1)</f>
         <v>0.71640000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>280000000</v>
       </c>
@@ -35006,7 +34914,7 @@
         <v>-8.524012764558293</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M19">
         <f>M16/M18</f>
@@ -35016,7 +34924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>300000000</v>
       </c>
@@ -35055,14 +34963,14 @@
         <v>231.14246336052759</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O20">
         <f>(240-M20)/240</f>
         <v>3.6906402664468395E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>350000000</v>
       </c>
@@ -35097,14 +35005,14 @@
         <v>-5.9053043828881657</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21">
         <f>M8*4/(2*1+1)</f>
         <v>0.23880000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <v>400000000</v>
       </c>
@@ -35139,14 +35047,14 @@
         <v>-4.3884870115239512</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M22">
         <f>M16/M21</f>
         <v>693427390.0815829</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>450000000</v>
       </c>
@@ -35185,14 +35093,14 @@
         <v>693.42739008158287</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O23">
         <f>(732.5-M23)/732.5</f>
         <v>5.3341446987600176E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <v>500000000</v>
       </c>
@@ -35227,7 +35135,7 @@
         <v>-3.8669233768327764</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>550000000</v>
       </c>
@@ -35262,7 +35170,7 @@
         <v>-5.0986401357077717</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M25" s="5">
         <f>A15</f>
@@ -35272,7 +35180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>600000000</v>
       </c>
@@ -35307,7 +35215,7 @@
         <v>-6.8341246610220807</v>
       </c>
       <c r="L26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M26" s="5">
         <f>(A31+A32)/2</f>
@@ -35317,7 +35225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>650000000</v>
       </c>
@@ -35352,7 +35260,7 @@
         <v>-8.709015705401379</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M27" s="5">
         <f>(M26-M25)*2*M8</f>
@@ -35362,7 +35270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>700000000</v>
       </c>
@@ -35397,14 +35305,14 @@
         <v>-9.506666359408424</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M28" s="5">
         <f>299792458/M27</f>
         <v>1.6993736760508691</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
         <v>720000000</v>
       </c>
@@ -35439,7 +35347,7 @@
         <v>-9.1951282340539979</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <v>725000000</v>
       </c>
@@ -35474,14 +35382,14 @@
         <v>-9.0679314108322835</v>
       </c>
       <c r="L30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M30">
         <f>-(M12-2*M2)/(M12+2*M2)</f>
         <v>0.33223395792159804</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8">
         <v>730000000</v>
       </c>
@@ -35516,7 +35424,7 @@
         <v>-8.9253273217035662</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8">
         <v>735000000</v>
       </c>
@@ -35551,7 +35459,7 @@
         <v>-8.7696388484025576</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
         <v>740000000</v>
       </c>
@@ -35586,7 +35494,7 @@
         <v>-8.6031249224868702</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
         <v>745000000</v>
       </c>
@@ -35621,7 +35529,7 @@
         <v>-8.4279127997552621</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5">
         <v>750000000</v>
       </c>
@@ -35656,7 +35564,7 @@
         <v>-8.2459528194410741</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5">
         <v>760000000</v>
       </c>
@@ -35691,7 +35599,7 @@
         <v>-7.8685715597224961</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5">
         <v>780000000</v>
       </c>
@@ -35726,7 +35634,7 @@
         <v>-7.0960513727656824</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5">
         <v>800000000</v>
       </c>
@@ -35761,7 +35669,7 @@
         <v>-6.3440375019128936</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5">
         <v>850000000</v>
       </c>
@@ -35796,7 +35704,7 @@
         <v>-4.7133562535804732</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5">
         <v>900000000</v>
       </c>
@@ -35831,7 +35739,7 @@
         <v>-3.6764286177540417</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5">
         <v>950000000</v>
       </c>
@@ -35866,7 +35774,7 @@
         <v>-3.6866943793972053</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5">
         <v>1000000000</v>
       </c>
@@ -35901,7 +35809,7 @@
         <v>-4.7374454245088575</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5">
         <v>2000000000</v>
       </c>
@@ -35944,27 +35852,28 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC23B0D-B420-4C67-A68C-23C3F982C665}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -35972,25 +35881,25 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -36030,7 +35939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -36061,10 +35970,10 @@
         <v>3.0102999566398121</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -36095,7 +36004,7 @@
         <v>10.930932133337166</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -36104,7 +36013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2</v>
       </c>
@@ -36135,16 +36044,16 @@
         <v>18.129133566428553</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2.5</v>
       </c>
@@ -36175,16 +36084,16 @@
         <v>23.894152890216382</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6">
         <v>7.92</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>3</v>
       </c>
@@ -36215,7 +36124,7 @@
         <v>28.633228601204557</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>3.5</v>
       </c>
@@ -36246,7 +36155,7 @@
         <v>32.646444541653757</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4</v>
       </c>
@@ -36277,7 +36186,7 @@
         <v>36.124659639531423</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>4.5</v>
       </c>
@@ -36308,7 +36217,7 @@
         <v>39.193273804110746</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>5</v>
       </c>
@@ -36337,284 +36246,6 @@
       <c r="H11">
         <f t="shared" si="3"/>
         <v>41.93847819973557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36628,19 +36259,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9F26C4-7C8C-401A-AE68-E32847AE3704}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="134" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -36651,16 +36282,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>CONVERT(B2,"Mm", "m")</f>
         <v>100000000</v>
@@ -36682,13 +36313,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f t="shared" ref="A3:A26" si="0">CONVERT(B3,"Mm", "m")</f>
         <v>200000000</v>
@@ -36704,16 +36335,16 @@
         <v>0.74948114499999996</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3">
         <v>0.05</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>300000000</v>
@@ -36738,7 +36369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>400000000</v>
@@ -36754,7 +36385,7 @@
         <v>0.37474057249999998</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5">
         <f>MAX(C:C)</f>
@@ -36764,7 +36395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>500000000</v>
@@ -36780,7 +36411,7 @@
         <v>0.29979245799999998</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6">
         <f>_xlfn.XLOOKUP(I5, C:C, A:A)</f>
@@ -36790,7 +36421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>600000000</v>
@@ -36806,7 +36437,7 @@
         <v>0.24982704833333333</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>650000000</v>
@@ -36822,7 +36453,7 @@
         <v>0.23060958307692309</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>660000000</v>
@@ -36838,7 +36469,7 @@
         <v>0.22711549848484849</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>670000000</v>
@@ -36854,7 +36485,7 @@
         <v>0.22372571492537313</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>680000000</v>
@@ -36870,7 +36501,7 @@
         <v>0.22043563088235293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>690000000</v>
@@ -36886,7 +36517,7 @@
         <v>0.21724091159420289</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>700000000</v>
@@ -36902,7 +36533,7 @@
         <v>0.21413747</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>710000000</v>
@@ -36918,7 +36549,7 @@
         <v>0.21112144929577464</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>720000000</v>
@@ -36934,7 +36565,7 @@
         <v>0.20818920694444445</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>730000000</v>
@@ -36950,7 +36581,7 @@
         <v>0.2053373</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>740000000</v>
@@ -36966,7 +36597,7 @@
         <v>0.20256247162162161</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>750000000</v>
@@ -36982,7 +36613,7 @@
         <v>0.19986163866666667</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>800000000</v>
@@ -36998,7 +36629,7 @@
         <v>0.18737028624999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>900000000</v>
@@ -37014,7 +36645,7 @@
         <v>0.16655136555555555</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1000000000</v>
@@ -37030,7 +36661,7 @@
         <v>0.14989622899999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37040,7 +36671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37050,7 +36681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37060,7 +36691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37070,7 +36701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -37083,53 +36714,52 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4579BB17-D70C-42A0-B0C3-88AECC352BDF}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="156" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="12"/>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="12">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
         <v>0.01</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2">
         <v>10.1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2">
         <f>10*LOG10(A2)</f>
         <v>-20</v>
       </c>
-      <c r="D2" s="12"/>
       <c r="H2" t="s">
         <v>33</v>
       </c>
@@ -37137,45 +36767,43 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="12">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
         <v>0.02</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3">
         <v>9.67</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3">
         <f t="shared" ref="C3:C14" si="0">10*LOG10(A3)</f>
         <v>-16.989700043360187</v>
       </c>
-      <c r="D3" s="12"/>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3">
         <v>0.05</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="12">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
         <v>0.05</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>8.16</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>-13.010299956639813</v>
       </c>
-      <c r="D4" s="12"/>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="5">
         <v>670000000</v>
@@ -37184,224 +36812,142 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="12">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
         <v>0.1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>4.4800000000000004</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="12">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>0.2</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>-2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>-6.9897000433601875</v>
       </c>
-      <c r="D6" s="12"/>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6">
         <f>SLOPE(B5:B14, C5:C14)</f>
         <v>-2.1108328507020557</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="12">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
         <v>0.3</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>-3.88</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>-5.2287874528033758</v>
       </c>
-      <c r="D7" s="12"/>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7">
         <f>CORREL(B5:B14, C5:C14)</f>
         <v>-0.91352580748272583</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
         <v>0.4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>-6.28</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>-3.9794000867203758</v>
       </c>
-      <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="12">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
         <v>0.5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>-7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>-3.0102999566398121</v>
       </c>
-      <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="12">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
         <v>0.6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>-6.8</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>-2.2184874961635641</v>
       </c>
-      <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="12">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
         <v>0.7</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>-7.5</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>-1.5490195998574319</v>
       </c>
-      <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
         <v>0.8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>-13.6</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>-0.96910013008056395</v>
       </c>
-      <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="12">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
         <v>0.9</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>-16.5</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>-0.45757490560675118</v>
       </c>
-      <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="12">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>-21</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -37412,41 +36958,41 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EC2037-4B4F-44C8-AC3A-4353DD26C43B}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>90</v>
       </c>
       <c r="B2">
-        <f>SIN(RADIANS(A2))</f>
+        <f t="shared" ref="B2:B8" si="0">SIN(RADIANS(A2))</f>
         <v>1</v>
       </c>
       <c r="C2">
@@ -37457,26 +37003,26 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J2">
         <f>SLOPE(D2:D12, C2:C12)</f>
-        <v>1.7876214294311548</v>
+        <v>1.0290091100731373</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>107</v>
       </c>
       <c r="B3">
-        <f>SIN(RADIANS(A3))</f>
+        <f t="shared" si="0"/>
         <v>0.95630475596303555</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">10*LOG10(B3)</f>
+        <f t="shared" ref="C3:C8" si="1">10*LOG10(B3)</f>
         <v>-0.19403684354108869</v>
       </c>
       <c r="D3">
@@ -37489,102 +37035,102 @@
         <v>0.3</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>115</v>
       </c>
       <c r="B4">
-        <f>SIN(RADIANS(A4))</f>
+        <f t="shared" si="0"/>
         <v>0.90630778703665005</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.42724288513601444</v>
       </c>
       <c r="D4">
         <v>-6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>124</v>
       </c>
       <c r="B5">
-        <f>SIN(RADIANS(A5))</f>
+        <f t="shared" si="0"/>
         <v>0.82903757255504174</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.81425786478003093</v>
       </c>
       <c r="D5">
         <v>-7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>135</v>
       </c>
       <c r="B6">
-        <f>SIN(RADIANS(A6))</f>
+        <f t="shared" si="0"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5051499783199058</v>
       </c>
       <c r="D6">
         <v>-7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>150</v>
       </c>
       <c r="B7">
-        <f>SIN(RADIANS(A7))</f>
+        <f t="shared" si="0"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.0102999566398125</v>
       </c>
       <c r="D7">
         <v>-10.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>163</v>
       </c>
       <c r="B8">
-        <f>SIN(RADIANS(A8))</f>
+        <f t="shared" si="0"/>
         <v>0.2923717047227366</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.3406466002262567</v>
       </c>
       <c r="D8">
         <v>-15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
         <v>175</v>
       </c>
-      <c r="B13">
-        <f>SIN(RADIANS(A13))</f>
+      <c r="B9">
+        <f>SIN(RADIANS(A9))</f>
         <v>8.7155742747658194E-2</v>
       </c>
-      <c r="C13">
-        <f>10*LOG10(B13)</f>
+      <c r="C9">
+        <f>10*LOG10(B9)</f>
         <v>-10.597039916698796</v>
       </c>
-      <c r="D13">
+      <c r="D9">
         <v>-15.2</v>
       </c>
     </row>
@@ -37603,13 +37149,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -37623,7 +37169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37638,7 +37184,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37653,7 +37199,7 @@
         <v>2.3333333333333331E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>5</v>
       </c>
@@ -37668,7 +37214,7 @@
         <v>-4.8888888888888891E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>10</v>
       </c>
@@ -37683,7 +37229,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -37698,7 +37244,7 @@
         <v>-8.4444444444444447E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>50</v>
       </c>
@@ -37713,7 +37259,7 @@
         <v>-0.15444444444444444</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>100</v>
       </c>
@@ -37728,7 +37274,7 @@
         <v>-0.20888888888888887</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>200</v>
       </c>
@@ -37743,7 +37289,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>500</v>
       </c>
@@ -37758,7 +37304,7 @@
         <v>-0.45333333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -37788,27 +37334,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>90</v>
       </c>
@@ -37830,10 +37376,10 @@
         <v>0.3</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>180</v>
       </c>
@@ -37842,7 +37388,7 @@
         <v>1.22514845490862E-16</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">10*LOG10(B3)</f>
+        <f t="shared" ref="C3" si="0">10*LOG10(B3)</f>
         <v>-159.11811283347396</v>
       </c>
       <c r="D3">
@@ -37859,31 +37405,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE53702-D8C1-401B-AE11-2D74C550EFDB}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>8.1999999999999993</v>
@@ -37893,18 +37439,18 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2.4999999999999999E-8</v>
+      </c>
+      <c r="H2" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="14">
-        <v>2.4999999999999999E-8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>7.8</v>
@@ -37914,7 +37460,7 @@
         <v>0.39999999999999947</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5">
         <v>670000000</v>
@@ -37923,9 +37469,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>7.63</v>
@@ -37935,19 +37481,19 @@
         <v>0.5699999999999994</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="5">
         <f>2*PI()*G3</f>
         <v>4209734155.8103228</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>-21.2</v>
@@ -37957,34 +37503,34 @@
         <v>29.4</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="5">
         <v>1.2566370612700001E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <f>SQRT(2*G2/(G4*G5))</f>
         <v>3.0743459390508633E-6</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7">
         <f>CONVERT(G6,"m", "um")</f>
         <v>3.0743459390508634</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -38001,16 +37547,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -38027,7 +37573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -38056,7 +37602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -38075,7 +37621,7 @@
         <v>0.56548667764616278</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38094,7 +37640,7 @@
         <v>0.84823001646924412</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -38113,7 +37659,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -38132,7 +37678,7 @@
         <v>1.4137166941154069</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38151,7 +37697,7 @@
         <v>1.6964600329384882</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38170,7 +37716,7 @@
         <v>1.9792033717615696</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38189,7 +37735,7 @@
         <v>2.2619467105846511</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38208,7 +37754,7 @@
         <v>2.5446900494077327</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38227,7 +37773,7 @@
         <v>2.8274333882308138</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -38246,7 +37792,7 @@
         <v>3.1101767270538949</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -38265,7 +37811,7 @@
         <v>3.3929200658769765</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -38284,7 +37830,7 @@
         <v>3.675663404700058</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -38303,7 +37849,7 @@
         <v>3.9584067435231391</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -38322,7 +37868,7 @@
         <v>4.2411500823462207</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -38341,7 +37887,7 @@
         <v>4.5238934211693023</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -38360,7 +37906,7 @@
         <v>4.8066367599923829</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -38379,7 +37925,7 @@
         <v>5.0893800988154654</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -38398,7 +37944,7 @@
         <v>5.3721234376385461</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -38417,7 +37963,7 @@
         <v>5.6548667764616276</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -38436,7 +37982,7 @@
         <v>5.9376101152847092</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -38455,7 +38001,7 @@
         <v>6.2203534541077898</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -38474,7 +38020,7 @@
         <v>6.5030967929308723</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -38493,7 +38039,7 @@
         <v>6.785840131753953</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -38512,7 +38058,7 @@
         <v>7.0685834705770345</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -38531,7 +38077,7 @@
         <v>7.3513268094001161</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -38550,7 +38096,7 @@
         <v>7.6340701482231976</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -38569,7 +38115,7 @@
         <v>7.9168134870462783</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -38588,7 +38134,7 @@
         <v>8.1995568258693599</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -38607,7 +38153,7 @@
         <v>8.4823001646924414</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -38626,7 +38172,7 @@
         <v>8.765043503515523</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -38645,7 +38191,7 @@
         <v>9.0477868423386045</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -38664,7 +38210,7 @@
         <v>9.3305301811616861</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -38683,7 +38229,7 @@
         <v>9.6132735199847659</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -38702,7 +38248,7 @@
         <v>9.8960168588078474</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -38721,7 +38267,7 @@
         <v>10.178760197630931</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -38740,7 +38286,7 @@
         <v>10.461503536454011</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -38759,7 +38305,7 @@
         <v>10.744246875277092</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -38778,7 +38324,7 @@
         <v>11.026990214100174</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -38808,20 +38354,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC940BF9-FA07-414D-8A21-B8EECD053AE0}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -38841,7 +38387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -38870,7 +38416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -38889,7 +38435,7 @@
         <v>0.56548667764616278</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38908,7 +38454,7 @@
         <v>0.84823001646924412</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -38927,7 +38473,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -38946,7 +38492,7 @@
         <v>1.4137166941154069</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38965,7 +38511,7 @@
         <v>1.6964600329384882</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38984,7 +38530,7 @@
         <v>1.9792033717615696</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -39003,7 +38549,7 @@
         <v>2.2619467105846511</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -39022,7 +38568,7 @@
         <v>2.5446900494077327</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -39041,7 +38587,7 @@
         <v>2.8274333882308138</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -39052,15 +38598,15 @@
         <v>-36.619999999999997</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>$I$2/(A12*1000000)</f>
         <v>18.181818181818183</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>2*PI()*9/D12</f>
         <v>3.1101767270538949</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -39079,7 +38625,7 @@
         <v>3.3929200658769765</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -39098,7 +38644,7 @@
         <v>3.675663404700058</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -39117,7 +38663,7 @@
         <v>3.9584067435231391</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -39136,7 +38682,7 @@
         <v>4.2411500823462207</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -39155,7 +38701,7 @@
         <v>4.5238934211693023</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>16.100000000000001</v>
       </c>
@@ -39174,7 +38720,7 @@
         <v>4.5521677550516104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>16.2</v>
       </c>
@@ -39193,7 +38739,7 @@
         <v>4.5804420889339186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>16.3</v>
       </c>
@@ -39212,7 +38758,7 @@
         <v>4.6087164228162267</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>16.399999999999999</v>
       </c>
@@ -39231,7 +38777,7 @@
         <v>4.636990756698534</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>16.5</v>
       </c>
@@ -39250,7 +38796,7 @@
         <v>4.665265090580843</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>16.600000000000001</v>
       </c>
@@ -39269,7 +38815,7 @@
         <v>4.6935394244631512</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>16.7</v>
       </c>
@@ -39288,7 +38834,7 @@
         <v>4.7218137583454594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>16.8</v>
       </c>
@@ -39307,7 +38853,7 @@
         <v>4.7500880922277666</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>16.899999999999999</v>
       </c>
@@ -39326,7 +38872,7 @@
         <v>4.7783624261100757</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>17</v>
       </c>
@@ -39345,7 +38891,7 @@
         <v>4.8066367599923829</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>17.100000000000001</v>
       </c>
@@ -39364,7 +38910,7 @@
         <v>4.8349110938746911</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>17.2</v>
       </c>
@@ -39383,7 +38929,7 @@
         <v>4.8631854277570001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>17.3</v>
       </c>
@@ -39402,7 +38948,7 @@
         <v>4.8914597616393074</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>17.399999999999999</v>
       </c>
@@ -39424,7 +38970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>17.5</v>
       </c>
@@ -39443,7 +38989,7 @@
         <v>4.9480084294039237</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>17.600000000000001</v>
       </c>
@@ -39462,7 +39008,7 @@
         <v>4.9762827632862328</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>17.7</v>
       </c>
@@ -39481,7 +39027,7 @@
         <v>5.00455709716854</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>17.8</v>
       </c>
@@ -39500,7 +39046,7 @@
         <v>5.0328314310508482</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4">
         <v>17.899999999999999</v>
       </c>
@@ -39519,7 +39065,7 @@
         <v>5.0611057649331572</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>18</v>
       </c>
@@ -39538,7 +39084,7 @@
         <v>5.0893800988154654</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>19</v>
       </c>
@@ -39557,7 +39103,7 @@
         <v>5.3721234376385461</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>20</v>
       </c>
@@ -39576,7 +39122,7 @@
         <v>5.6548667764616276</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>21</v>
       </c>
@@ -39595,7 +39141,7 @@
         <v>5.9376101152847092</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>22</v>
       </c>
@@ -39614,7 +39160,7 @@
         <v>6.2203534541077898</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>23</v>
       </c>
@@ -39633,7 +39179,7 @@
         <v>6.5030967929308723</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>24</v>
       </c>
@@ -39652,7 +39198,7 @@
         <v>6.785840131753953</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>25</v>
       </c>
@@ -39671,7 +39217,7 @@
         <v>7.0685834705770345</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>26</v>
       </c>
@@ -39690,7 +39236,7 @@
         <v>7.3513268094001161</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>27</v>
       </c>
@@ -39709,7 +39255,7 @@
         <v>7.6340701482231976</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>28</v>
       </c>
@@ -39728,7 +39274,7 @@
         <v>7.9168134870462783</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>29</v>
       </c>
@@ -39747,7 +39293,7 @@
         <v>8.1995568258693599</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>30</v>
       </c>
@@ -39766,7 +39312,7 @@
         <v>8.4823001646924414</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>31</v>
       </c>
@@ -39785,7 +39331,7 @@
         <v>8.765043503515523</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>32</v>
       </c>
@@ -39804,7 +39350,7 @@
         <v>9.0477868423386045</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>33</v>
       </c>
@@ -39823,7 +39369,7 @@
         <v>9.3305301811616861</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>34</v>
       </c>
@@ -39842,7 +39388,7 @@
         <v>9.6132735199847659</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
         <v>35</v>
       </c>
@@ -39861,7 +39407,7 @@
         <v>9.8960168588078474</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>36</v>
       </c>
@@ -39880,7 +39426,7 @@
         <v>10.178760197630931</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>37</v>
       </c>
@@ -39899,7 +39445,7 @@
         <v>10.461503536454011</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>38</v>
       </c>
@@ -39918,7 +39464,7 @@
         <v>10.744246875277092</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>39</v>
       </c>
@@ -39937,7 +39483,7 @@
         <v>11.026990214100174</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>40</v>
       </c>
@@ -39971,16 +39517,16 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -40006,7 +39552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -40045,7 +39591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -40085,7 +39631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -40125,7 +39671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -40174,29 +39720,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB22F09-9D91-4EDE-97FD-BBEF3582046D}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -40214,7 +39760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -40253,7 +39799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -40293,7 +39839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -40333,7 +39879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -40383,16 +39929,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -40400,10 +39946,10 @@
         <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>45</v>
@@ -40412,7 +39958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
         <v>10</v>
       </c>
@@ -40434,7 +39980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>20</v>
       </c>
@@ -40456,7 +40002,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>50</v>
       </c>
@@ -40478,7 +40024,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>70</v>
       </c>
@@ -40500,7 +40046,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>100</v>
       </c>
@@ -40537,22 +40083,22 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.08203125" customWidth="1"/>
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -40593,7 +40139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -40641,7 +40187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -40689,7 +40235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -40736,7 +40282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>100000000</v>
       </c>
@@ -40784,7 +40330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
         <v>35</v>
       </c>
@@ -40796,7 +40342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -40807,39 +40353,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="5"/>
       <c r="R26" s="5"/>
     </row>
@@ -40854,26 +40400,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6C8918-7AD9-4E97-B3F3-48D28D2B2145}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.08203125" customWidth="1"/>
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -40914,7 +40460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -40962,7 +40508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -41010,7 +40556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -41057,7 +40603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>100000000</v>
       </c>
@@ -41105,7 +40651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H7" s="6"/>
       <c r="L7" t="s">
         <v>35</v>
@@ -41118,7 +40664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -41129,22 +40675,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -41157,6 +40703,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="38eb1637-7feb-461b-b321-b5055bfca986" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009CA27991D6BC9846861143813B06BD0E" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ee85dfa53edb1a0b9532d3b3243e38f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38eb1637-7feb-461b-b321-b5055bfca986" xmlns:ns4="3bfbbb28-e1ac-425b-829e-0af756d708af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8a9e9bfbaa310bbc5631820db757520" ns3:_="" ns4:_="">
     <xsd:import namespace="38eb1637-7feb-461b-b321-b5055bfca986"/>
@@ -41375,24 +40938,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2AB4BB-FCC7-4935-A55F-E1D114740462}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3bfbbb28-e1ac-425b-829e-0af756d708af"/>
+    <ds:schemaRef ds:uri="38eb1637-7feb-461b-b321-b5055bfca986"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="38eb1637-7feb-461b-b321-b5055bfca986" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C02E9C8A-A0B6-4413-83DB-B5DA8578E624}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA634E79-5047-4F9F-8D97-3FAF62B65797}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41409,29 +40980,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C02E9C8A-A0B6-4413-83DB-B5DA8578E624}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2AB4BB-FCC7-4935-A55F-E1D114740462}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3bfbbb28-e1ac-425b-829e-0af756d708af"/>
-    <ds:schemaRef ds:uri="38eb1637-7feb-461b-b321-b5055bfca986"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/5/data/pe2_exp5.xlsx
+++ b/5/data/pe2_exp5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\physics_experiment_2\5\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuma2\Documents\pe_2\5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F84013-9749-482B-9758-6FCA386470FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92C49F-8954-4B03-9A65-847EC49086CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="1000" firstSheet="10" activeTab="20" xr2:uid="{3573288A-466D-4422-8044-13D2BEE97D22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="1000" firstSheet="10" activeTab="13" xr2:uid="{3573288A-466D-4422-8044-13D2BEE97D22}"/>
   </bookViews>
   <sheets>
     <sheet name="没" sheetId="1" r:id="rId1"/>
@@ -6178,7 +6178,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>-4.0845538399977295E-2</c:v>
+                  <c:v>-2.0470788226473767E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-8.2333310242444377E-2</c:v>
@@ -31094,13 +31094,13 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -31114,7 +31114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1</v>
       </c>
@@ -31129,7 +31129,7 @@
         <v>-3.4777777777777779</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>2</v>
       </c>
@@ -31144,7 +31144,7 @@
         <v>-4.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>5</v>
       </c>
@@ -31159,7 +31159,7 @@
         <v>-4.3888888888888893</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>10</v>
       </c>
@@ -31174,7 +31174,7 @@
         <v>-3.8333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>20</v>
       </c>
@@ -31189,7 +31189,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>50</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>-3.6222222222222222</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>100</v>
       </c>
@@ -31219,7 +31219,7 @@
         <v>-4.4222222222222216</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>200</v>
       </c>
@@ -31234,7 +31234,7 @@
         <v>-4.333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>500</v>
       </c>
@@ -31249,7 +31249,7 @@
         <v>-3.7444444444444449</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>1000</v>
       </c>
@@ -31264,7 +31264,7 @@
         <v>-2.8111111111111113</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -31284,23 +31284,23 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="10" width="19.08203125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="10" width="19.125" customWidth="1"/>
     <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -31344,7 +31344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -31396,7 +31396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -31448,7 +31448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -31499,7 +31499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>70000000</v>
       </c>
@@ -31551,7 +31551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>100000000</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K8" s="5"/>
       <c r="M8" t="s">
         <v>37</v>
@@ -31615,25 +31615,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -31654,22 +31654,22 @@
       <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -31710,7 +31710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -31758,7 +31758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -31806,7 +31806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -31853,7 +31853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>100000000</v>
       </c>
@@ -31901,7 +31901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>35</v>
       </c>
@@ -31913,7 +31913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -31939,22 +31939,22 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -32043,7 +32043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -32091,7 +32091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -32125,7 +32125,7 @@
         <v>-2.4504422698000385</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J4:J6" si="4">-2*ATAN($M$8*2*A5*PI()*$M$7)</f>
+        <f t="shared" ref="J5:J6" si="4">-2*ATAN($M$8*2*A5*PI()*$M$7)</f>
         <v>-2.0077696437077743</v>
       </c>
       <c r="L5" t="s">
@@ -32138,7 +32138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>100000000</v>
       </c>
@@ -32186,7 +32186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>35</v>
       </c>
@@ -32198,7 +32198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -32224,22 +32224,22 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="10" width="19.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="10" width="19.125" customWidth="1"/>
     <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -32283,7 +32283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -32335,7 +32335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -32387,7 +32387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -32438,7 +32438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>70000000</v>
       </c>
@@ -32490,7 +32490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>100000000</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>37</v>
       </c>
@@ -32564,26 +32564,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA4A50A-57E1-464A-A84D-CAFD8C9AFBB9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="9" width="16.25" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -32612,7 +32612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>10000000</v>
       </c>
@@ -32639,12 +32639,12 @@
         <v>5291.3417620540495</v>
       </c>
       <c r="H2" s="5">
-        <f>2*G2/(2*G2+$M$2*2)</f>
-        <v>0.99063905620958204</v>
+        <f>2*G2/(2*G2+$M$2)</f>
+        <v>0.9952975182712217</v>
       </c>
       <c r="I2" s="5">
         <f>10*LOG10(H2)</f>
-        <v>-4.0845538399977295E-2</v>
+        <v>-2.0470788226473767E-2</v>
       </c>
       <c r="K2" t="s">
         <v>43</v>
@@ -32659,7 +32659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>20000000</v>
       </c>
@@ -32685,12 +32685,12 @@
         <f t="shared" ref="G3:G41" si="2">ABS(F3*$M$4-1/(F3*$M$5))</f>
         <v>2624.9363695133325</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H41" si="3">2*G3/(2*G3+$M$2)</f>
+      <c r="H3" s="5">
+        <f>2*G3/(2*G3+$M$2)</f>
         <v>0.99056581120678333</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I41" si="4">20*LOG10(H3)</f>
+        <f t="shared" ref="I3:I41" si="3">20*LOG10(H3)</f>
         <v>-8.2333310242444377E-2</v>
       </c>
       <c r="L3" t="s">
@@ -32703,7 +32703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>30000000</v>
       </c>
@@ -32718,7 +32718,7 @@
         <v>-6.47</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E41" si="5">D4+$M$3</f>
+        <f t="shared" ref="E4:E41" si="4">D4+$M$3</f>
         <v>-0.46999999999999975</v>
       </c>
       <c r="F4" s="5">
@@ -32730,11 +32730,11 @@
         <v>1726.9192335492298</v>
       </c>
       <c r="H4" s="5">
-        <f>2*G4/(2*G4+$M$2)</f>
+        <f t="shared" ref="H3:H41" si="5">2*G4/(2*G4+$M$2)</f>
         <v>0.98572993576344714</v>
       </c>
       <c r="I4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.12484108196825447</v>
       </c>
       <c r="K4" t="s">
@@ -32751,7 +32751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>40000000</v>
       </c>
@@ -32766,7 +32766,7 @@
         <v>-6.52</v>
       </c>
       <c r="E5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.51999999999999957</v>
       </c>
       <c r="F5" s="5">
@@ -32777,12 +32777,12 @@
         <f t="shared" si="2"/>
         <v>1270.9991617292808</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
+        <f t="shared" si="5"/>
+        <v>0.98070986406608329</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="3"/>
-        <v>0.98070986406608329</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
         <v>-0.16918913011795889</v>
       </c>
       <c r="L5" t="s">
@@ -32796,7 +32796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>50000000</v>
       </c>
@@ -32811,7 +32811,7 @@
         <v>-6.57</v>
       </c>
       <c r="E6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.57000000000000028</v>
       </c>
       <c r="F6" s="5">
@@ -32819,15 +32819,15 @@
         <v>314159265.35897928</v>
       </c>
       <c r="G6" s="5">
-        <f>ABS(F6*$M$4-1/(F6*$M$5))</f>
+        <f t="shared" si="2"/>
         <v>991.91791556699354</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
+        <f t="shared" si="5"/>
+        <v>0.97541591153297658</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="3"/>
-        <v>0.97541591153297658</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
         <v>-0.21620328461618166</v>
       </c>
       <c r="L6" t="s">
@@ -32841,7 +32841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>60000000</v>
       </c>
@@ -32856,7 +32856,7 @@
         <v>-6.63</v>
       </c>
       <c r="E7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.62999999999999989</v>
       </c>
       <c r="F7" s="5">
@@ -32868,7 +32868,7 @@
         <v>801.25608223353697</v>
       </c>
       <c r="H7" s="5">
-        <f>2*G7/(2*G7+$M$2)</f>
+        <f t="shared" si="5"/>
         <v>0.96974303664740358</v>
       </c>
       <c r="I7">
@@ -32883,7 +32883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>70000000</v>
       </c>
@@ -32898,7 +32898,7 @@
         <v>-6.69</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.69000000000000039</v>
       </c>
       <c r="F8" s="5">
@@ -32909,16 +32909,16 @@
         <f t="shared" si="2"/>
         <v>661.11962765941212</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
+        <f t="shared" si="5"/>
+        <v>0.96356320531846096</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.96356320531846096</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
         <v>-0.32239584703663499</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>80000000</v>
       </c>
@@ -32933,7 +32933,7 @@
         <v>-6.74</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.74000000000000021</v>
       </c>
       <c r="F9" s="5">
@@ -32944,16 +32944,16 @@
         <f t="shared" si="2"/>
         <v>552.56153480986995</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
+        <f t="shared" si="5"/>
+        <v>0.95671456893639939</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.95671456893639939</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
         <v>-0.38435225022369246</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>90000000</v>
       </c>
@@ -32968,7 +32968,7 @@
         <v>-6.79</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.79</v>
       </c>
       <c r="F10" s="5">
@@ -32979,16 +32979,16 @@
         <f t="shared" si="2"/>
         <v>465.05568311004913</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
+        <f t="shared" si="5"/>
+        <v>0.94898538908610941</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.94898538908610941</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
         <v>-0.45480948144627109</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>100000000</v>
       </c>
@@ -33003,7 +33003,7 @@
         <v>-6.84</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.83999999999999986</v>
       </c>
       <c r="F11" s="5">
@@ -33014,16 +33014,16 @@
         <f t="shared" si="2"/>
         <v>392.28640021503361</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
+        <f t="shared" si="5"/>
+        <v>0.94008910909361731</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.94008910909361731</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
         <v>-0.53661957154941642</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>110000000</v>
       </c>
@@ -33038,7 +33038,7 @@
         <v>-6.89</v>
       </c>
       <c r="E12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.88999999999999968</v>
       </c>
       <c r="F12" s="5">
@@ -33049,16 +33049,16 @@
         <f t="shared" si="2"/>
         <v>330.23462190533081</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
+        <f t="shared" si="5"/>
+        <v>0.9296239767793173</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.9296239767793173</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
         <v>-0.63385367048915842</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>120000000</v>
       </c>
@@ -33073,7 +33073,7 @@
         <v>-6.95</v>
       </c>
       <c r="E13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.95000000000000018</v>
       </c>
       <c r="F13" s="5">
@@ -33084,16 +33084,16 @@
         <f t="shared" si="2"/>
         <v>276.22097203461271</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
+        <f t="shared" si="5"/>
+        <v>0.91700445081517334</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.91700445081517334</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
         <v>-0.75257112826198191</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>130000000</v>
       </c>
@@ -33108,7 +33108,7 @@
         <v>-7.01</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.0099999999999998</v>
       </c>
       <c r="F14" s="5">
@@ -33119,16 +33119,16 @@
         <f t="shared" si="2"/>
         <v>228.39049788619045</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
+        <f t="shared" si="5"/>
+        <v>0.9013380524978144</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.9013380524978144</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
         <v>-0.90224587189193373</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>140000000</v>
       </c>
@@ -33143,7 +33143,7 @@
         <v>-7.12</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.1200000000000001</v>
       </c>
       <c r="F15" s="5">
@@ -33154,16 +33154,16 @@
         <f t="shared" si="2"/>
         <v>185.41823323385765</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
+        <f t="shared" si="5"/>
+        <v>0.88118900336828154</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="3"/>
-        <v>0.88118900336828154</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
         <v>-1.0986186236681126</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>150000000</v>
       </c>
@@ -33178,7 +33178,7 @@
         <v>-7.35</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.3499999999999996</v>
       </c>
       <c r="F16" s="5">
@@ -33189,16 +33189,16 @@
         <f t="shared" si="2"/>
         <v>146.33253617839665</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
+        <f t="shared" si="5"/>
+        <v>0.85408492422029381</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.85408492422029381</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
         <v>-1.3699788792750989</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>160000000</v>
       </c>
@@ -33213,7 +33213,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.8200000000000003</v>
       </c>
       <c r="F17" s="5">
@@ -33224,16 +33224,16 @@
         <f t="shared" si="2"/>
         <v>110.40467529539387</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.81536826593719225</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="3"/>
-        <v>0.81536826593719225</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
         <v>-1.7729239051768251</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>170000000</v>
       </c>
@@ -33248,7 +33248,7 @@
         <v>-8.77</v>
       </c>
       <c r="E18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.7699999999999996</v>
       </c>
       <c r="F18" s="5">
@@ -33259,16 +33259,16 @@
         <f t="shared" si="2"/>
         <v>77.077385377944921</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
+        <f t="shared" si="5"/>
+        <v>0.7550877708374224</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="3"/>
-        <v>0.7550877708374224</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
         <v>-2.4400512674201518</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>180000000</v>
       </c>
@@ -33283,7 +33283,7 @@
         <v>-10.220000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-4.2200000000000006</v>
       </c>
       <c r="F19" s="5">
@@ -33294,16 +33294,16 @@
         <f t="shared" si="2"/>
         <v>45.917237931790851</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
+        <f t="shared" si="5"/>
+        <v>0.64747640025059439</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="3"/>
-        <v>0.64747640025059439</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
         <v>-3.7755211295743734</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>190000000</v>
       </c>
@@ -33318,7 +33318,7 @@
         <v>-11.28</v>
       </c>
       <c r="E20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-5.2799999999999994</v>
       </c>
       <c r="F20" s="5">
@@ -33326,19 +33326,19 @@
         <v>1193805208.3641214</v>
       </c>
       <c r="G20" s="5">
-        <f>ABS(F20*$M$4-1/(F20*$M$5))</f>
+        <f t="shared" si="2"/>
         <v>16.582052566727214</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
+        <f t="shared" si="5"/>
+        <v>0.39877907758684583</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="3"/>
-        <v>0.39877907758684583</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
         <v>-7.9853527106651825</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>200000000</v>
       </c>
@@ -33353,7 +33353,7 @@
         <v>-11.29</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-5.2899999999999991</v>
       </c>
       <c r="F21" s="5">
@@ -33361,19 +33361,19 @@
         <v>1256637061.4359171</v>
       </c>
       <c r="G21" s="5">
-        <f>ABS(F21*$M$4-1/(F21*$M$5))</f>
+        <f t="shared" si="2"/>
         <v>11.20191502940952</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
+        <f t="shared" si="5"/>
+        <v>0.30942879735255352</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="3"/>
-        <v>0.30942879735255352</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="4"/>
         <v>-10.188785412647576</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>210000000</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>-10.82</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-4.82</v>
       </c>
       <c r="F22" s="5">
@@ -33399,16 +33399,16 @@
         <f t="shared" si="2"/>
         <v>37.656267395037588</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
+        <f t="shared" si="5"/>
+        <v>0.60099761700806309</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="3"/>
-        <v>0.60099761700806309</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
         <v>-4.422544999955206</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>220000000</v>
       </c>
@@ -33423,7 +33423,7 @@
         <v>-10.35</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-4.3499999999999996</v>
       </c>
       <c r="F23" s="5">
@@ -33434,16 +33434,16 @@
         <f t="shared" si="2"/>
         <v>62.962315697953585</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
+        <f t="shared" si="5"/>
+        <v>0.7157873823394395</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="3"/>
-        <v>0.7157873823394395</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
         <v>-2.9043192295281002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>230000000</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>-9.9499999999999993</v>
       </c>
       <c r="E24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.9499999999999993</v>
       </c>
       <c r="F24" s="5">
@@ -33469,16 +33469,16 @@
         <f t="shared" si="2"/>
         <v>87.269838728945928</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
+        <f t="shared" si="5"/>
+        <v>0.7773222061861359</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="3"/>
-        <v>0.7773222061861359</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
         <v>-2.1879785078136158</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>240000000</v>
       </c>
@@ -33493,7 +33493,7 @@
         <v>-9.6300000000000008</v>
       </c>
       <c r="E25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.6300000000000008</v>
       </c>
       <c r="F25" s="5">
@@ -33504,16 +33504,16 @@
         <f t="shared" si="2"/>
         <v>110.70365214700522</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
+        <f t="shared" si="5"/>
+        <v>0.81577503917935845</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="3"/>
-        <v>0.81577503917935845</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="4"/>
         <v>-1.7685917443527777</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>250000000</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>-9.39</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.3900000000000006</v>
       </c>
       <c r="F26" s="5">
@@ -33539,16 +33539,16 @@
         <f t="shared" si="2"/>
         <v>133.36860110568341</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
+        <f t="shared" si="5"/>
+        <v>0.8421404254034115</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="3"/>
-        <v>0.8421404254034115</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
         <v>-1.4923096927412884</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>260000000</v>
       </c>
@@ -33563,7 +33563,7 @@
         <v>-9.1999999999999993</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.1999999999999993</v>
       </c>
       <c r="F27" s="5">
@@ -33574,16 +33574,16 @@
         <f t="shared" si="2"/>
         <v>155.35340073490897</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
+        <f t="shared" si="5"/>
+        <v>0.86138326253827591</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="3"/>
-        <v>0.86138326253827591</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
         <v>-1.2960714245793308</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>270000000</v>
       </c>
@@ -33598,7 +33598,7 @@
         <v>-9.0299999999999994</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.0299999999999994</v>
       </c>
       <c r="F28" s="5">
@@ -33609,16 +33609,16 @@
         <f t="shared" si="2"/>
         <v>176.73362318239904</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
+        <f t="shared" si="5"/>
+        <v>0.87607420317139673</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="3"/>
-        <v>0.87607420317139673</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="4"/>
         <v>-1.149182153737192</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>280000000</v>
       </c>
@@ -33633,7 +33633,7 @@
         <v>-8.8800000000000008</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.8800000000000008</v>
       </c>
       <c r="F29" s="5">
@@ -33644,16 +33644,16 @@
         <f t="shared" si="2"/>
         <v>197.57404457476804</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
+        <f t="shared" si="5"/>
+        <v>0.8876778285277469</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="3"/>
-        <v>0.8876778285277469</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="4"/>
         <v>-1.0348925465938206</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>290000000</v>
       </c>
@@ -33668,7 +33668,7 @@
         <v>-8.73</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.7300000000000004</v>
       </c>
       <c r="F30" s="5">
@@ -33679,16 +33679,16 @@
         <f t="shared" si="2"/>
         <v>217.93050640047676</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
+        <f t="shared" si="5"/>
+        <v>0.89708991114196712</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="3"/>
-        <v>0.89708991114196712</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="4"/>
         <v>-0.94328054924173954</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>300000000</v>
       </c>
@@ -33703,7 +33703,7 @@
         <v>-8.59</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.59</v>
       </c>
       <c r="F31" s="5">
@@ -33714,16 +33714,16 @@
         <f t="shared" si="2"/>
         <v>237.85140461619116</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
+        <f t="shared" si="5"/>
+        <v>0.90488922805451855</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="3"/>
-        <v>0.90488922805451855</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="4"/>
         <v>-0.86809163333458461</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>310000000</v>
       </c>
@@ -33738,7 +33738,7 @@
         <v>-8.4499999999999993</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.4499999999999993</v>
       </c>
       <c r="F32" s="5">
@@ -33749,16 +33749,16 @@
         <f t="shared" si="2"/>
         <v>257.37889053900761</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
+        <f t="shared" si="5"/>
+        <v>0.9114664699182019</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="3"/>
-        <v>0.9114664699182019</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="4"/>
         <v>-0.80518606178940033</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>320000000</v>
       </c>
@@ -33773,7 +33773,7 @@
         <v>-8.33</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.33</v>
       </c>
       <c r="F33" s="5">
@@ -33784,16 +33784,16 @@
         <f t="shared" si="2"/>
         <v>276.54984657138522</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
+        <f t="shared" si="5"/>
+        <v>0.91709496693747505</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="3"/>
-        <v>0.91709496693747505</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="4"/>
         <v>-0.75171379954598483</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>330000000</v>
       </c>
@@ -33808,7 +33808,7 @@
         <v>-8.2200000000000006</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.2200000000000006</v>
       </c>
       <c r="F34" s="5">
@@ -33819,16 +33819,16 @@
         <f t="shared" si="2"/>
         <v>295.39668452154569</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
+        <f t="shared" si="5"/>
+        <v>0.92197172690056717</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="3"/>
-        <v>0.92197172690056717</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="4"/>
         <v>-0.70564793552912919</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>340000000</v>
       </c>
@@ -33843,7 +33843,7 @@
         <v>-8.1300000000000008</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.1300000000000008</v>
       </c>
       <c r="F35" s="5">
@@ -33854,16 +33854,16 @@
         <f t="shared" si="2"/>
         <v>313.94800304380232</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
+        <f t="shared" si="5"/>
+        <v>0.92624237412377008</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="3"/>
-        <v>0.92624237412377008</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="4"/>
         <v>-0.66550709203853986</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>350000000</v>
       </c>
@@ -33878,7 +33878,7 @@
         <v>-8.0399999999999991</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.0399999999999991</v>
       </c>
       <c r="F36" s="5">
@@ -33889,16 +33889,16 @@
         <f t="shared" si="2"/>
         <v>332.22913237483255</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
+        <f t="shared" si="5"/>
+        <v>0.9300169058615072</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="3"/>
-        <v>0.9300169058615072</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="4"/>
         <v>-0.63018313525180547</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>360000000</v>
       </c>
@@ -33913,7 +33913,7 @@
         <v>-7.95</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.9500000000000002</v>
       </c>
       <c r="F37" s="5">
@@ -33924,16 +33924,16 @@
         <f t="shared" si="2"/>
         <v>350.262588280572</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
+        <f t="shared" si="5"/>
+        <v>0.93337998302855518</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="3"/>
-        <v>0.93337998302855518</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
         <v>-0.59883034185759809</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>370000000</v>
       </c>
@@ -33948,7 +33948,7 @@
         <v>-7.86</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.8600000000000003</v>
       </c>
       <c r="F38" s="5">
@@ -33959,16 +33959,16 @@
         <f t="shared" si="2"/>
         <v>368.06845239009817</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
+        <f t="shared" si="5"/>
+        <v>0.9363978466142866</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="3"/>
-        <v>0.9363978466142866</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="4"/>
         <v>-0.57079187397661335</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>380000000</v>
       </c>
@@ -33983,7 +33983,7 @@
         <v>-7.79</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.79</v>
       </c>
       <c r="F39" s="5">
@@ -33994,16 +33994,16 @@
         <f t="shared" si="2"/>
         <v>385.66469247679646</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
+        <f t="shared" si="5"/>
+        <v>0.93912308397096356</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="3"/>
-        <v>0.93912308397096356</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
         <v>-0.54554968425626438</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>390000000</v>
       </c>
@@ -34018,7 +34018,7 @@
         <v>-7.74</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.7400000000000002</v>
       </c>
       <c r="F40" s="5">
@@ -34029,16 +34029,16 @@
         <f t="shared" si="2"/>
         <v>403.06743346549968</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
+        <f t="shared" si="5"/>
+        <v>0.94159798656578975</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="3"/>
-        <v>0.94159798656578975</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="4"/>
         <v>-0.52268957645093261</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>400000000</v>
       </c>
@@ -34053,7 +34053,7 @@
         <v>-7.69</v>
       </c>
       <c r="E41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.6900000000000004</v>
       </c>
       <c r="F41" s="5">
@@ -34064,12 +34064,12 @@
         <f t="shared" si="2"/>
         <v>420.29118778855741</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
+        <f t="shared" si="5"/>
+        <v>0.943856962173096</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="3"/>
-        <v>0.943856962173096</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="4"/>
         <v>-0.50187632687235573</v>
       </c>
     </row>
@@ -34088,23 +34088,23 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.08203125" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -34133,7 +34133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>10000000</v>
       </c>
@@ -34180,7 +34180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>20000000</v>
       </c>
@@ -34195,7 +34195,7 @@
         <v>-6.48</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E2:E43" si="1">D3+$M$3</f>
+        <f t="shared" ref="E3:E43" si="1">D3+$M$3</f>
         <v>-0.48000000000000043</v>
       </c>
       <c r="F3" s="5">
@@ -34224,7 +34224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>50000000</v>
       </c>
@@ -34271,7 +34271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>100000000</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>120000000</v>
       </c>
@@ -34359,7 +34359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>140000000</v>
       </c>
@@ -34404,7 +34404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>160000000</v>
       </c>
@@ -34448,7 +34448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>180000000</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>3.0423506587452845E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>200000000</v>
       </c>
@@ -34532,7 +34532,7 @@
         <v>3.0250641091186914</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>220000000</v>
       </c>
@@ -34576,7 +34576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>225000000</v>
       </c>
@@ -34621,7 +34621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>230000000</v>
       </c>
@@ -34663,7 +34663,7 @@
         <v>3.0690158883256487E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>235000000</v>
       </c>
@@ -34705,7 +34705,7 @@
         <v>4.1707180626501241</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>240000000</v>
       </c>
@@ -34750,7 +34750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>245000000</v>
       </c>
@@ -34795,7 +34795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>250000000</v>
       </c>
@@ -34837,7 +34837,7 @@
         <v>0.55235032214013202</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>260000000</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>0.71640000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>280000000</v>
       </c>
@@ -34924,7 +34924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>300000000</v>
       </c>
@@ -34970,7 +34970,7 @@
         <v>3.6906402664468395E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>350000000</v>
       </c>
@@ -35012,7 +35012,7 @@
         <v>0.23880000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>400000000</v>
       </c>
@@ -35054,7 +35054,7 @@
         <v>693427390.0815829</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>450000000</v>
       </c>
@@ -35100,7 +35100,7 @@
         <v>5.3341446987600176E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>500000000</v>
       </c>
@@ -35135,7 +35135,7 @@
         <v>-3.8669233768327764</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>550000000</v>
       </c>
@@ -35180,7 +35180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>600000000</v>
       </c>
@@ -35225,7 +35225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>650000000</v>
       </c>
@@ -35270,7 +35270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>700000000</v>
       </c>
@@ -35312,7 +35312,7 @@
         <v>1.6993736760508691</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>720000000</v>
       </c>
@@ -35347,7 +35347,7 @@
         <v>-9.1951282340539979</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>725000000</v>
       </c>
@@ -35389,7 +35389,7 @@
         <v>0.33223395792159804</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>730000000</v>
       </c>
@@ -35424,7 +35424,7 @@
         <v>-8.9253273217035662</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>735000000</v>
       </c>
@@ -35459,7 +35459,7 @@
         <v>-8.7696388484025576</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>740000000</v>
       </c>
@@ -35494,7 +35494,7 @@
         <v>-8.6031249224868702</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>745000000</v>
       </c>
@@ -35529,7 +35529,7 @@
         <v>-8.4279127997552621</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>750000000</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>-8.2459528194410741</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>760000000</v>
       </c>
@@ -35599,7 +35599,7 @@
         <v>-7.8685715597224961</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>780000000</v>
       </c>
@@ -35634,7 +35634,7 @@
         <v>-7.0960513727656824</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>800000000</v>
       </c>
@@ -35669,7 +35669,7 @@
         <v>-6.3440375019128936</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>850000000</v>
       </c>
@@ -35704,7 +35704,7 @@
         <v>-4.7133562535804732</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>900000000</v>
       </c>
@@ -35739,7 +35739,7 @@
         <v>-3.6764286177540417</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>950000000</v>
       </c>
@@ -35774,7 +35774,7 @@
         <v>-3.6866943793972053</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>1000000000</v>
       </c>
@@ -35809,7 +35809,7 @@
         <v>-4.7374454245088575</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>2000000000</v>
       </c>
@@ -35865,15 +35865,15 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -35899,7 +35899,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -35939,12 +35939,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B24" si="0">CONVERT(A3,"Mm","m")</f>
+        <f t="shared" ref="B3:B11" si="0">CONVERT(A3,"Mm","m")</f>
         <v>1000000</v>
       </c>
       <c r="C3" s="9">
@@ -35973,7 +35973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -35992,15 +35992,15 @@
         <v>0.1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F23" si="1">-20*LOG10(E4)</f>
+        <f t="shared" ref="F4:F11" si="1">-20*LOG10(E4)</f>
         <v>20</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G24" si="2">F4-$K$2</f>
+        <f t="shared" ref="G4:G11" si="2">F4-$K$2</f>
         <v>14</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H24" si="3">10*LOG10(1+(A4/$K$5)^(2*$K$4))</f>
+        <f t="shared" ref="H4:H11" si="3">10*LOG10(1+(A4/$K$5)^(2*$K$4))</f>
         <v>10.930932133337166</v>
       </c>
       <c r="J4" t="s">
@@ -36013,7 +36013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -36028,7 +36028,7 @@
         <v>55.2</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E23" si="4">D5/C5/1000</f>
+        <f t="shared" ref="E5:E11" si="4">D5/C5/1000</f>
         <v>5.1111111111111107E-2</v>
       </c>
       <c r="F5">
@@ -36053,7 +36053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2.5</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -36124,7 +36124,7 @@
         <v>28.633228601204557</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3.5</v>
       </c>
@@ -36155,7 +36155,7 @@
         <v>32.646444541653757</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -36186,7 +36186,7 @@
         <v>36.124659639531423</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>4.5</v>
       </c>
@@ -36217,7 +36217,7 @@
         <v>39.193273804110746</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>5</v>
       </c>
@@ -36263,15 +36263,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -36291,7 +36291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>CONVERT(B2,"Mm", "m")</f>
         <v>100000000</v>
@@ -36319,7 +36319,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A26" si="0">CONVERT(B3,"Mm", "m")</f>
         <v>200000000</v>
@@ -36344,7 +36344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>300000000</v>
@@ -36369,7 +36369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>400000000</v>
@@ -36395,7 +36395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>500000000</v>
@@ -36421,7 +36421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>600000000</v>
@@ -36437,7 +36437,7 @@
         <v>0.24982704833333333</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>650000000</v>
@@ -36453,7 +36453,7 @@
         <v>0.23060958307692309</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>660000000</v>
@@ -36469,7 +36469,7 @@
         <v>0.22711549848484849</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>670000000</v>
@@ -36485,7 +36485,7 @@
         <v>0.22372571492537313</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>680000000</v>
@@ -36501,7 +36501,7 @@
         <v>0.22043563088235293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>690000000</v>
@@ -36517,7 +36517,7 @@
         <v>0.21724091159420289</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>700000000</v>
@@ -36533,7 +36533,7 @@
         <v>0.21413747</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>710000000</v>
@@ -36549,7 +36549,7 @@
         <v>0.21112144929577464</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>720000000</v>
@@ -36565,7 +36565,7 @@
         <v>0.20818920694444445</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>730000000</v>
@@ -36581,7 +36581,7 @@
         <v>0.2053373</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>740000000</v>
@@ -36597,7 +36597,7 @@
         <v>0.20256247162162161</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>750000000</v>
@@ -36613,7 +36613,7 @@
         <v>0.19986163866666667</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>800000000</v>
@@ -36629,7 +36629,7 @@
         <v>0.18737028624999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>900000000</v>
@@ -36645,7 +36645,7 @@
         <v>0.16655136555555555</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1000000000</v>
@@ -36661,7 +36661,7 @@
         <v>0.14989622899999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -36681,7 +36681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -36701,7 +36701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -36727,15 +36727,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -36749,7 +36749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -36770,7 +36770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -36791,7 +36791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.05</v>
       </c>
@@ -36812,7 +36812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -36824,7 +36824,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -36846,7 +36846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -36865,7 +36865,7 @@
         <v>-0.91352580748272583</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.4</v>
       </c>
@@ -36877,7 +36877,7 @@
         <v>-3.9794000867203758</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.5</v>
       </c>
@@ -36889,7 +36889,7 @@
         <v>-3.0102999566398121</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.6</v>
       </c>
@@ -36901,7 +36901,7 @@
         <v>-2.2184874961635641</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.7</v>
       </c>
@@ -36913,7 +36913,7 @@
         <v>-1.5490195998574319</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.8</v>
       </c>
@@ -36925,7 +36925,7 @@
         <v>-0.96910013008056395</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.9</v>
       </c>
@@ -36937,7 +36937,7 @@
         <v>-0.45757490560675118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -36964,13 +36964,13 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -36987,7 +36987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>90</v>
       </c>
@@ -37013,7 +37013,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>107</v>
       </c>
@@ -37038,7 +37038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>115</v>
       </c>
@@ -37054,7 +37054,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>124</v>
       </c>
@@ -37070,7 +37070,7 @@
         <v>-7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>135</v>
       </c>
@@ -37086,7 +37086,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>150</v>
       </c>
@@ -37102,7 +37102,7 @@
         <v>-10.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>163</v>
       </c>
@@ -37118,7 +37118,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>175</v>
       </c>
@@ -37149,13 +37149,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -37169,7 +37169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37184,7 +37184,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37199,7 +37199,7 @@
         <v>2.3333333333333331E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>5</v>
       </c>
@@ -37214,7 +37214,7 @@
         <v>-4.8888888888888891E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10</v>
       </c>
@@ -37229,7 +37229,7 @@
         <v>-6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>20</v>
       </c>
@@ -37244,7 +37244,7 @@
         <v>-8.4444444444444447E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>50</v>
       </c>
@@ -37259,7 +37259,7 @@
         <v>-0.15444444444444444</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>100</v>
       </c>
@@ -37274,7 +37274,7 @@
         <v>-0.20888888888888887</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>200</v>
       </c>
@@ -37289,7 +37289,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>500</v>
       </c>
@@ -37304,7 +37304,7 @@
         <v>-0.45333333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -37334,13 +37334,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -37354,7 +37354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>90</v>
       </c>
@@ -37379,7 +37379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>180</v>
       </c>
@@ -37405,18 +37405,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE53702-D8C1-401B-AE11-2D74C550EFDB}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+    <sheetView zoomScale="156" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -37427,7 +37427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -37448,7 +37448,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -37469,7 +37469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -37491,7 +37491,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -37509,7 +37509,7 @@
         <v>1.2566370612700001E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F6" t="s">
         <v>127</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
         <v>127</v>
       </c>
@@ -37547,16 +37547,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -37573,7 +37573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37602,7 +37602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37621,7 +37621,7 @@
         <v>0.56548667764616278</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37640,7 +37640,7 @@
         <v>0.84823001646924412</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -37659,7 +37659,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37678,7 +37678,7 @@
         <v>1.4137166941154069</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -37697,7 +37697,7 @@
         <v>1.6964600329384882</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -37716,7 +37716,7 @@
         <v>1.9792033717615696</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -37735,7 +37735,7 @@
         <v>2.2619467105846511</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -37754,7 +37754,7 @@
         <v>2.5446900494077327</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -37773,7 +37773,7 @@
         <v>2.8274333882308138</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -37792,7 +37792,7 @@
         <v>3.1101767270538949</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -37811,7 +37811,7 @@
         <v>3.3929200658769765</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -37830,7 +37830,7 @@
         <v>3.675663404700058</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -37849,7 +37849,7 @@
         <v>3.9584067435231391</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -37868,7 +37868,7 @@
         <v>4.2411500823462207</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -37887,7 +37887,7 @@
         <v>4.5238934211693023</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -37906,7 +37906,7 @@
         <v>4.8066367599923829</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -37925,7 +37925,7 @@
         <v>5.0893800988154654</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -37944,7 +37944,7 @@
         <v>5.3721234376385461</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -37963,7 +37963,7 @@
         <v>5.6548667764616276</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -37982,7 +37982,7 @@
         <v>5.9376101152847092</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -38001,7 +38001,7 @@
         <v>6.2203534541077898</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -38020,7 +38020,7 @@
         <v>6.5030967929308723</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -38039,7 +38039,7 @@
         <v>6.785840131753953</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -38058,7 +38058,7 @@
         <v>7.0685834705770345</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -38077,7 +38077,7 @@
         <v>7.3513268094001161</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -38096,7 +38096,7 @@
         <v>7.6340701482231976</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -38115,7 +38115,7 @@
         <v>7.9168134870462783</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -38134,7 +38134,7 @@
         <v>8.1995568258693599</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -38153,7 +38153,7 @@
         <v>8.4823001646924414</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -38172,7 +38172,7 @@
         <v>8.765043503515523</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -38191,7 +38191,7 @@
         <v>9.0477868423386045</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -38210,7 +38210,7 @@
         <v>9.3305301811616861</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -38229,7 +38229,7 @@
         <v>9.6132735199847659</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -38248,7 +38248,7 @@
         <v>9.8960168588078474</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -38267,7 +38267,7 @@
         <v>10.178760197630931</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -38286,7 +38286,7 @@
         <v>10.461503536454011</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -38305,7 +38305,7 @@
         <v>10.744246875277092</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -38324,7 +38324,7 @@
         <v>11.026990214100174</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -38358,16 +38358,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -38416,7 +38416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -38435,7 +38435,7 @@
         <v>0.56548667764616278</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38454,7 +38454,7 @@
         <v>0.84823001646924412</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -38473,7 +38473,7 @@
         <v>1.1309733552923256</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -38492,7 +38492,7 @@
         <v>1.4137166941154069</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38511,7 +38511,7 @@
         <v>1.6964600329384882</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38530,7 +38530,7 @@
         <v>1.9792033717615696</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38549,7 +38549,7 @@
         <v>2.2619467105846511</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38568,7 +38568,7 @@
         <v>2.5446900494077327</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38587,7 +38587,7 @@
         <v>2.8274333882308138</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -38606,7 +38606,7 @@
         <v>3.1101767270538949</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -38625,7 +38625,7 @@
         <v>3.3929200658769765</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -38644,7 +38644,7 @@
         <v>3.675663404700058</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -38663,7 +38663,7 @@
         <v>3.9584067435231391</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -38682,7 +38682,7 @@
         <v>4.2411500823462207</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -38701,7 +38701,7 @@
         <v>4.5238934211693023</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16.100000000000001</v>
       </c>
@@ -38720,7 +38720,7 @@
         <v>4.5521677550516104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16.2</v>
       </c>
@@ -38739,7 +38739,7 @@
         <v>4.5804420889339186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>16.3</v>
       </c>
@@ -38758,7 +38758,7 @@
         <v>4.6087164228162267</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16.399999999999999</v>
       </c>
@@ -38777,7 +38777,7 @@
         <v>4.636990756698534</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>16.5</v>
       </c>
@@ -38796,7 +38796,7 @@
         <v>4.665265090580843</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>16.600000000000001</v>
       </c>
@@ -38815,7 +38815,7 @@
         <v>4.6935394244631512</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>16.7</v>
       </c>
@@ -38834,7 +38834,7 @@
         <v>4.7218137583454594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>16.8</v>
       </c>
@@ -38853,7 +38853,7 @@
         <v>4.7500880922277666</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>16.899999999999999</v>
       </c>
@@ -38872,7 +38872,7 @@
         <v>4.7783624261100757</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>17</v>
       </c>
@@ -38891,7 +38891,7 @@
         <v>4.8066367599923829</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>17.100000000000001</v>
       </c>
@@ -38910,7 +38910,7 @@
         <v>4.8349110938746911</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>17.2</v>
       </c>
@@ -38929,7 +38929,7 @@
         <v>4.8631854277570001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>17.3</v>
       </c>
@@ -38948,7 +38948,7 @@
         <v>4.8914597616393074</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>17.399999999999999</v>
       </c>
@@ -38970,7 +38970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>17.5</v>
       </c>
@@ -38989,7 +38989,7 @@
         <v>4.9480084294039237</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>17.600000000000001</v>
       </c>
@@ -39008,7 +39008,7 @@
         <v>4.9762827632862328</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>17.7</v>
       </c>
@@ -39027,7 +39027,7 @@
         <v>5.00455709716854</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>17.8</v>
       </c>
@@ -39046,7 +39046,7 @@
         <v>5.0328314310508482</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>17.899999999999999</v>
       </c>
@@ -39065,7 +39065,7 @@
         <v>5.0611057649331572</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>18</v>
       </c>
@@ -39084,7 +39084,7 @@
         <v>5.0893800988154654</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>19</v>
       </c>
@@ -39103,7 +39103,7 @@
         <v>5.3721234376385461</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>20</v>
       </c>
@@ -39122,7 +39122,7 @@
         <v>5.6548667764616276</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>21</v>
       </c>
@@ -39141,7 +39141,7 @@
         <v>5.9376101152847092</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>22</v>
       </c>
@@ -39160,7 +39160,7 @@
         <v>6.2203534541077898</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>23</v>
       </c>
@@ -39179,7 +39179,7 @@
         <v>6.5030967929308723</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>24</v>
       </c>
@@ -39198,7 +39198,7 @@
         <v>6.785840131753953</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>25</v>
       </c>
@@ -39217,7 +39217,7 @@
         <v>7.0685834705770345</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>26</v>
       </c>
@@ -39236,7 +39236,7 @@
         <v>7.3513268094001161</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>27</v>
       </c>
@@ -39255,7 +39255,7 @@
         <v>7.6340701482231976</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>28</v>
       </c>
@@ -39274,7 +39274,7 @@
         <v>7.9168134870462783</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>29</v>
       </c>
@@ -39293,7 +39293,7 @@
         <v>8.1995568258693599</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>30</v>
       </c>
@@ -39312,7 +39312,7 @@
         <v>8.4823001646924414</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>31</v>
       </c>
@@ -39331,7 +39331,7 @@
         <v>8.765043503515523</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>32</v>
       </c>
@@ -39350,7 +39350,7 @@
         <v>9.0477868423386045</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>33</v>
       </c>
@@ -39369,7 +39369,7 @@
         <v>9.3305301811616861</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>34</v>
       </c>
@@ -39388,7 +39388,7 @@
         <v>9.6132735199847659</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>35</v>
       </c>
@@ -39407,7 +39407,7 @@
         <v>9.8960168588078474</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>36</v>
       </c>
@@ -39426,7 +39426,7 @@
         <v>10.178760197630931</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>37</v>
       </c>
@@ -39445,7 +39445,7 @@
         <v>10.461503536454011</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>38</v>
       </c>
@@ -39464,7 +39464,7 @@
         <v>10.744246875277092</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>39</v>
       </c>
@@ -39483,7 +39483,7 @@
         <v>11.026990214100174</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>40</v>
       </c>
@@ -39517,16 +39517,16 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -39552,7 +39552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -39591,7 +39591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -39631,7 +39631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -39671,7 +39671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -39724,17 +39724,17 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -39760,7 +39760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -39799,7 +39799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -39839,7 +39839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -39879,7 +39879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -39932,13 +39932,13 @@
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -39958,7 +39958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>10</v>
       </c>
@@ -39980,7 +39980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>20</v>
       </c>
@@ -40002,7 +40002,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>50</v>
       </c>
@@ -40024,7 +40024,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>70</v>
       </c>
@@ -40046,7 +40046,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>100</v>
       </c>
@@ -40083,22 +40083,22 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -40139,7 +40139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -40187,7 +40187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -40235,7 +40235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -40282,7 +40282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>100000000</v>
       </c>
@@ -40330,7 +40330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>35</v>
       </c>
@@ -40342,7 +40342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -40353,39 +40353,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="9:18" x14ac:dyDescent="0.4">
       <c r="I23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="9:18" x14ac:dyDescent="0.4">
       <c r="I24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="9:18" x14ac:dyDescent="0.4">
       <c r="I25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="9:18" x14ac:dyDescent="0.4">
       <c r="I26" s="5"/>
       <c r="R26" s="5"/>
     </row>
@@ -40404,22 +40404,22 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -40460,7 +40460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>10000000</v>
       </c>
@@ -40508,7 +40508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>20000000</v>
       </c>
@@ -40556,7 +40556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>50000000</v>
       </c>
@@ -40603,7 +40603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>100000000</v>
       </c>
@@ -40651,7 +40651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H7" s="6"/>
       <c r="L7" t="s">
         <v>35</v>
@@ -40664,7 +40664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -40675,22 +40675,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -40711,15 +40711,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009CA27991D6BC9846861143813B06BD0E" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ee85dfa53edb1a0b9532d3b3243e38f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38eb1637-7feb-461b-b321-b5055bfca986" xmlns:ns4="3bfbbb28-e1ac-425b-829e-0af756d708af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8a9e9bfbaa310bbc5631820db757520" ns3:_="" ns4:_="">
     <xsd:import namespace="38eb1637-7feb-461b-b321-b5055bfca986"/>
@@ -40938,6 +40929,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2AB4BB-FCC7-4935-A55F-E1D114740462}">
   <ds:schemaRefs>
@@ -40956,14 +40956,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C02E9C8A-A0B6-4413-83DB-B5DA8578E624}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA634E79-5047-4F9F-8D97-3FAF62B65797}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40980,4 +40972,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C02E9C8A-A0B6-4413-83DB-B5DA8578E624}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/5/data/pe2_exp5.xlsx
+++ b/5/data/pe2_exp5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuma2\Documents\pe_2\5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92C49F-8954-4B03-9A65-847EC49086CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A74E4-B453-4A36-8378-36A7B1353193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="1000" firstSheet="10" activeTab="13" xr2:uid="{3573288A-466D-4422-8044-13D2BEE97D22}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" tabRatio="1000" firstSheet="4" activeTab="6" xr2:uid="{3573288A-466D-4422-8044-13D2BEE97D22}"/>
   </bookViews>
   <sheets>
     <sheet name="没" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="130">
   <si>
     <t>A power [dBm]</t>
     <phoneticPr fontId="1"/>
@@ -616,6 +616,10 @@
   </si>
   <si>
     <t>um</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phase_diff</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -32564,7 +32568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA4A50A-57E1-464A-A84D-CAFD8C9AFBB9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -32730,7 +32734,7 @@
         <v>1726.9192335492298</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H3:H41" si="5">2*G4/(2*G4+$M$2)</f>
+        <f t="shared" ref="H4:H41" si="5">2*G4/(2*G4+$M$2)</f>
         <v>0.98572993576344714</v>
       </c>
       <c r="I4">
@@ -39926,24 +39930,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87D4122-9AB4-4230-B791-CEEAFA44BDED}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>80</v>
@@ -39957,8 +39962,11 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>10</v>
       </c>
@@ -39979,8 +39987,12 @@
       <c r="F2" s="10">
         <v>50</v>
       </c>
+      <c r="G2" s="5">
+        <f>F2*0.000000001/(1/B2)*2*PI()</f>
+        <v>3.141592653589794</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>20</v>
       </c>
@@ -40001,8 +40013,12 @@
       <c r="F3" s="10">
         <v>25.4</v>
       </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G5" si="2">F3*0.000000001/(1/B3)*2*PI()</f>
+        <v>3.1918581360472298</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>50</v>
       </c>
@@ -40023,8 +40039,12 @@
       <c r="F4" s="10">
         <v>10.5</v>
       </c>
+      <c r="G4" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2986722862692828</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>70</v>
       </c>
@@ -40045,8 +40065,12 @@
       <c r="F5" s="9">
         <v>7.6</v>
       </c>
+      <c r="G5" s="5">
+        <f t="shared" si="2"/>
+        <v>3.3426545834195402</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>100</v>
       </c>
@@ -40066,6 +40090,10 @@
       </c>
       <c r="F6" s="9">
         <v>5.48</v>
+      </c>
+      <c r="G6" s="5">
+        <f>F6*0.000000001/(1/B6)*2*PI()</f>
+        <v>3.4431855483344136</v>
       </c>
     </row>
   </sheetData>
@@ -40703,11 +40731,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="38eb1637-7feb-461b-b321-b5055bfca986" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40930,27 +40959,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="38eb1637-7feb-461b-b321-b5055bfca986" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2AB4BB-FCC7-4935-A55F-E1D114740462}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C02E9C8A-A0B6-4413-83DB-B5DA8578E624}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3bfbbb28-e1ac-425b-829e-0af756d708af"/>
-    <ds:schemaRef ds:uri="38eb1637-7feb-461b-b321-b5055bfca986"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40975,9 +40994,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C02E9C8A-A0B6-4413-83DB-B5DA8578E624}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2AB4BB-FCC7-4935-A55F-E1D114740462}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3bfbbb28-e1ac-425b-829e-0af756d708af"/>
+    <ds:schemaRef ds:uri="38eb1637-7feb-461b-b321-b5055bfca986"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>